--- a/teaching/traditional_assets/database/data/latvia/latvia_machinery.xlsx
+++ b/teaching/traditional_assets/database/data/latvia/latvia_machinery.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="rise_dpk1r" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.142</v>
+        <v>-0.07919999999999999</v>
       </c>
       <c r="G2">
-        <v>0.1770522388059701</v>
+        <v>0.1045889101338432</v>
       </c>
       <c r="H2">
-        <v>0.1770522388059701</v>
+        <v>0.1045889101338432</v>
       </c>
       <c r="I2">
-        <v>-0.03824626865671641</v>
+        <v>0.05717017208413001</v>
       </c>
       <c r="J2">
-        <v>-0.03824626865671641</v>
+        <v>0.05717017208413001</v>
       </c>
       <c r="K2">
-        <v>-0.468</v>
+        <v>0.089</v>
       </c>
       <c r="L2">
-        <v>-0.08731343283582089</v>
+        <v>0.01701720841300191</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +629,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.015</v>
+        <v>0.025</v>
       </c>
       <c r="V2">
-        <v>0.0145631067961165</v>
+        <v>0.01824817518248175</v>
       </c>
       <c r="W2">
-        <v>-0.2017241379310345</v>
+        <v>0.0712</v>
       </c>
       <c r="X2">
-        <v>0.3949238091105559</v>
+        <v>0.267095375633021</v>
       </c>
       <c r="Y2">
-        <v>-0.5966479470415904</v>
+        <v>-0.195895375633021</v>
       </c>
       <c r="Z2">
-        <v>0.6501698204754974</v>
+        <v>0.8102246320681643</v>
       </c>
       <c r="AA2">
-        <v>-0.02486656962639495</v>
+        <v>0.04632068164213787</v>
       </c>
       <c r="AB2">
-        <v>0.09463750172797308</v>
+        <v>0.07395646363363434</v>
       </c>
       <c r="AC2">
-        <v>-0.119504071354368</v>
+        <v>-0.02763578199149647</v>
       </c>
       <c r="AD2">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="AG2">
-        <v>5.205</v>
+        <v>5.255</v>
       </c>
       <c r="AH2">
-        <v>0.8351999999999999</v>
+        <v>0.793984962406015</v>
       </c>
       <c r="AI2">
-        <v>0.8068006182380216</v>
+        <v>0.7868852459016394</v>
       </c>
       <c r="AJ2">
-        <v>0.834803528468324</v>
+        <v>0.7932075471698113</v>
       </c>
       <c r="AK2">
-        <v>0.8063516653756778</v>
+        <v>0.7860882572924458</v>
       </c>
       <c r="AL2">
-        <v>0.221</v>
+        <v>0.223</v>
       </c>
       <c r="AM2">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="AN2">
-        <v>20.63241106719368</v>
+        <v>6.633165829145729</v>
       </c>
       <c r="AO2">
-        <v>-0.9276018099547511</v>
+        <v>1.340807174887892</v>
       </c>
       <c r="AP2">
-        <v>20.57312252964427</v>
+        <v>6.601758793969849</v>
       </c>
       <c r="AQ2">
-        <v>-0.9276018099547511</v>
+        <v>1.346846846846847</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AS Ditton Pievadkezu Rupnica (RISE:DPK1R)</t>
+          <t>AS Ditton pievadkezu rupnica (RISE:DPK1R)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.142</v>
+        <v>-0.07919999999999999</v>
       </c>
       <c r="G3">
-        <v>0.1770522388059701</v>
+        <v>0.1045889101338432</v>
       </c>
       <c r="H3">
-        <v>0.1770522388059701</v>
+        <v>0.1045889101338432</v>
       </c>
       <c r="I3">
-        <v>-0.03824626865671641</v>
+        <v>0.05717017208413001</v>
       </c>
       <c r="J3">
-        <v>-0.03824626865671641</v>
+        <v>0.05717017208413001</v>
       </c>
       <c r="K3">
-        <v>-0.468</v>
+        <v>0.089</v>
       </c>
       <c r="L3">
-        <v>-0.08731343283582089</v>
+        <v>0.01701720841300191</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +748,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +757,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.015</v>
+        <v>0.025</v>
       </c>
       <c r="V3">
-        <v>0.0145631067961165</v>
+        <v>0.01824817518248175</v>
       </c>
       <c r="W3">
-        <v>-0.2017241379310345</v>
+        <v>0.0712</v>
       </c>
       <c r="X3">
-        <v>0.3949238091105559</v>
+        <v>0.267095375633021</v>
       </c>
       <c r="Y3">
-        <v>-0.5966479470415904</v>
+        <v>-0.195895375633021</v>
       </c>
       <c r="Z3">
-        <v>0.6501698204754974</v>
+        <v>0.8102246320681643</v>
       </c>
       <c r="AA3">
-        <v>-0.02486656962639495</v>
+        <v>0.04632068164213787</v>
       </c>
       <c r="AB3">
-        <v>0.09463750172797308</v>
+        <v>0.07395646363363434</v>
       </c>
       <c r="AC3">
-        <v>-0.119504071354368</v>
+        <v>-0.02763578199149647</v>
       </c>
       <c r="AD3">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="AG3">
-        <v>5.205</v>
+        <v>5.255</v>
       </c>
       <c r="AH3">
-        <v>0.8351999999999999</v>
+        <v>0.793984962406015</v>
       </c>
       <c r="AI3">
-        <v>0.8068006182380216</v>
+        <v>0.7868852459016394</v>
       </c>
       <c r="AJ3">
-        <v>0.834803528468324</v>
+        <v>0.7932075471698113</v>
       </c>
       <c r="AK3">
-        <v>0.8063516653756778</v>
+        <v>0.7860882572924458</v>
       </c>
       <c r="AL3">
-        <v>0.221</v>
+        <v>0.223</v>
       </c>
       <c r="AM3">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="AN3">
-        <v>20.63241106719368</v>
+        <v>6.633165829145729</v>
       </c>
       <c r="AO3">
-        <v>-0.9276018099547511</v>
+        <v>1.340807174887892</v>
       </c>
       <c r="AP3">
-        <v>20.57312252964427</v>
+        <v>6.601758793969849</v>
       </c>
       <c r="AQ3">
-        <v>-0.9276018099547511</v>
+        <v>1.346846846846847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AS Ditton pievadkezu rupnica (RISE:DPK1R)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RISE:DPK1R</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Machinery</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.793984962406015</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>1.37</v>
+      </c>
+      <c r="H2">
+        <v>5.67796272158512</v>
+      </c>
+      <c r="I2">
+        <v>6.625</v>
+      </c>
+      <c r="J2">
+        <v>6.98296272158512</v>
+      </c>
+      <c r="K2">
+        <v>5.28</v>
+      </c>
+      <c r="L2">
+        <v>1.33</v>
+      </c>
+      <c r="M2">
+        <v>0.0739564636336343</v>
+      </c>
+      <c r="N2">
+        <v>0.07064202467510711</v>
+      </c>
+      <c r="O2">
+        <v>0.0238427686640965</v>
+      </c>
+      <c r="P2">
+        <v>0.01296</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.267095375633021</v>
+      </c>
+      <c r="T2">
+        <v>0.0850625308438839</v>
+      </c>
+      <c r="U2">
+        <v>4.38274116183557</v>
+      </c>
+      <c r="V2">
+        <v>1.28802761352479</v>
+      </c>
+      <c r="W2">
+        <v>13.87728580711037</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1.37</v>
+      </c>
+      <c r="AB2">
+        <v>0.05882057965865632</v>
+      </c>
+      <c r="AC2">
+        <v>0.02980346083012063</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.796</v>
+      </c>
+      <c r="AH2">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>0.5730000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>5.28</v>
+      </c>
+      <c r="AK2">
+        <v>5.28</v>
+      </c>
+      <c r="AL2">
+        <v>0.223</v>
+      </c>
+      <c r="AM2">
+        <v>5.28</v>
+      </c>
+      <c r="AN2">
+        <v>0.025</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07243544236990326</v>
+      </c>
+      <c r="C2">
+        <v>6.809605532074675</v>
+      </c>
+      <c r="D2">
+        <v>6.784605532074675</v>
+      </c>
+      <c r="E2">
+        <v>-5.28</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.025</v>
+      </c>
+      <c r="H2">
+        <v>1.37</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.796</v>
+      </c>
+      <c r="K2">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.299</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.299</v>
+      </c>
+      <c r="O2">
+        <v>0.0598</v>
+      </c>
+      <c r="P2">
+        <v>0.2392</v>
+      </c>
+      <c r="Q2">
+        <v>0.7362000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07243544236990326</v>
+      </c>
+      <c r="T2">
+        <v>1.073356344603992</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07234577148516347</v>
+      </c>
+      <c r="C3">
+        <v>6.752755371649005</v>
+      </c>
+      <c r="D3">
+        <v>6.794255371649005</v>
+      </c>
+      <c r="E3">
+        <v>-5.2135</v>
+      </c>
+      <c r="F3">
+        <v>0.0665</v>
+      </c>
+      <c r="G3">
+        <v>0.025</v>
+      </c>
+      <c r="H3">
+        <v>1.37</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.796</v>
+      </c>
+      <c r="K3">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.299</v>
+      </c>
+      <c r="M3">
+        <v>0.0010773</v>
+      </c>
+      <c r="N3">
+        <v>0.2979227</v>
+      </c>
+      <c r="O3">
+        <v>0.05958454</v>
+      </c>
+      <c r="P3">
+        <v>0.23833816</v>
+      </c>
+      <c r="Q3">
+        <v>0.7353381600000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07294562776279138</v>
+      </c>
+      <c r="T3">
+        <v>1.082029931227054</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>277.5457161422074</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07225610060042365</v>
+      </c>
+      <c r="C4">
+        <v>6.695932700526009</v>
+      </c>
+      <c r="D4">
+        <v>6.803932700526008</v>
+      </c>
+      <c r="E4">
+        <v>-5.147</v>
+      </c>
+      <c r="F4">
+        <v>0.133</v>
+      </c>
+      <c r="G4">
+        <v>0.025</v>
+      </c>
+      <c r="H4">
+        <v>1.37</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.796</v>
+      </c>
+      <c r="K4">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.299</v>
+      </c>
+      <c r="M4">
+        <v>0.0021546</v>
+      </c>
+      <c r="N4">
+        <v>0.2968454</v>
+      </c>
+      <c r="O4">
+        <v>0.05936908</v>
+      </c>
+      <c r="P4">
+        <v>0.23747632</v>
+      </c>
+      <c r="Q4">
+        <v>0.7344763200000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07346622510247311</v>
+      </c>
+      <c r="T4">
+        <v>1.090880529822016</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>138.7728580711037</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07216642971568382</v>
+      </c>
+      <c r="C5">
+        <v>6.63913763633556</v>
+      </c>
+      <c r="D5">
+        <v>6.81363763633556</v>
+      </c>
+      <c r="E5">
+        <v>-5.080500000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.1995</v>
+      </c>
+      <c r="G5">
+        <v>0.025</v>
+      </c>
+      <c r="H5">
+        <v>1.37</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.796</v>
+      </c>
+      <c r="K5">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.299</v>
+      </c>
+      <c r="M5">
+        <v>0.0032319</v>
+      </c>
+      <c r="N5">
+        <v>0.2957681</v>
+      </c>
+      <c r="O5">
+        <v>0.05915362</v>
+      </c>
+      <c r="P5">
+        <v>0.23661448</v>
+      </c>
+      <c r="Q5">
+        <v>0.7336144800000001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07399755640792148</v>
+      </c>
+      <c r="T5">
+        <v>1.099913614985946</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>92.51523871406913</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07207675883094404</v>
+      </c>
+      <c r="C6">
+        <v>6.582370297379622</v>
+      </c>
+      <c r="D6">
+        <v>6.823370297379622</v>
+      </c>
+      <c r="E6">
+        <v>-5.014</v>
+      </c>
+      <c r="F6">
+        <v>0.266</v>
+      </c>
+      <c r="G6">
+        <v>0.025</v>
+      </c>
+      <c r="H6">
+        <v>1.37</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.796</v>
+      </c>
+      <c r="K6">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.299</v>
+      </c>
+      <c r="M6">
+        <v>0.0043092</v>
+      </c>
+      <c r="N6">
+        <v>0.2946908</v>
+      </c>
+      <c r="O6">
+        <v>0.05893816</v>
+      </c>
+      <c r="P6">
+        <v>0.23575264</v>
+      </c>
+      <c r="Q6">
+        <v>0.7327526400000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07453995711556671</v>
+      </c>
+      <c r="T6">
+        <v>1.109134889424125</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>69.38642903555184</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07198708794620423</v>
+      </c>
+      <c r="C7">
+        <v>6.525630802637076</v>
+      </c>
+      <c r="D7">
+        <v>6.833130802637076</v>
+      </c>
+      <c r="E7">
+        <v>-4.9475</v>
+      </c>
+      <c r="F7">
+        <v>0.3325</v>
+      </c>
+      <c r="G7">
+        <v>0.025</v>
+      </c>
+      <c r="H7">
+        <v>1.37</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.796</v>
+      </c>
+      <c r="K7">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.299</v>
+      </c>
+      <c r="M7">
+        <v>0.0053865</v>
+      </c>
+      <c r="N7">
+        <v>0.2936135</v>
+      </c>
+      <c r="O7">
+        <v>0.0587227</v>
+      </c>
+      <c r="P7">
+        <v>0.2348908</v>
+      </c>
+      <c r="Q7">
+        <v>0.7318908000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07509377678547814</v>
+      </c>
+      <c r="T7">
+        <v>1.118550295955739</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>55.50914322844147</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07189741706146444</v>
+      </c>
+      <c r="C8">
+        <v>6.468919271768535</v>
+      </c>
+      <c r="D8">
+        <v>6.842919271768535</v>
+      </c>
+      <c r="E8">
+        <v>-4.881</v>
+      </c>
+      <c r="F8">
+        <v>0.399</v>
+      </c>
+      <c r="G8">
+        <v>0.025</v>
+      </c>
+      <c r="H8">
+        <v>1.37</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.796</v>
+      </c>
+      <c r="K8">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.299</v>
+      </c>
+      <c r="M8">
+        <v>0.0064638</v>
+      </c>
+      <c r="N8">
+        <v>0.2925362</v>
+      </c>
+      <c r="O8">
+        <v>0.05850724</v>
+      </c>
+      <c r="P8">
+        <v>0.23402896</v>
+      </c>
+      <c r="Q8">
+        <v>0.7310289600000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07565937985262174</v>
+      </c>
+      <c r="T8">
+        <v>1.128166030285898</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>46.25761935703456</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07180774617672461</v>
+      </c>
+      <c r="C9">
+        <v>6.412235825121264</v>
+      </c>
+      <c r="D9">
+        <v>6.852735825121264</v>
+      </c>
+      <c r="E9">
+        <v>-4.8145</v>
+      </c>
+      <c r="F9">
+        <v>0.4655000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.025</v>
+      </c>
+      <c r="H9">
+        <v>1.37</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.796</v>
+      </c>
+      <c r="K9">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.299</v>
+      </c>
+      <c r="M9">
+        <v>0.007541100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.2914589</v>
+      </c>
+      <c r="O9">
+        <v>0.05829177999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.23316712</v>
+      </c>
+      <c r="Q9">
+        <v>0.7301671200000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07623714642658562</v>
+      </c>
+      <c r="T9">
+        <v>1.137988554601651</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>39.64938802031533</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07171807529198482</v>
+      </c>
+      <c r="C10">
+        <v>6.355580583734089</v>
+      </c>
+      <c r="D10">
+        <v>6.862580583734089</v>
+      </c>
+      <c r="E10">
+        <v>-4.748</v>
+      </c>
+      <c r="F10">
+        <v>0.532</v>
+      </c>
+      <c r="G10">
+        <v>0.025</v>
+      </c>
+      <c r="H10">
+        <v>1.37</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.796</v>
+      </c>
+      <c r="K10">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.299</v>
+      </c>
+      <c r="M10">
+        <v>0.0086184</v>
+      </c>
+      <c r="N10">
+        <v>0.2903816</v>
+      </c>
+      <c r="O10">
+        <v>0.05807631999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.23230528</v>
+      </c>
+      <c r="Q10">
+        <v>0.7293052800000001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07682747314346175</v>
+      </c>
+      <c r="T10">
+        <v>1.148024612054704</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>34.69321451777591</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07162840440724501</v>
+      </c>
+      <c r="C11">
+        <v>6.298953669342392</v>
+      </c>
+      <c r="D11">
+        <v>6.872453669342392</v>
+      </c>
+      <c r="E11">
+        <v>-4.6815</v>
+      </c>
+      <c r="F11">
+        <v>0.5985</v>
+      </c>
+      <c r="G11">
+        <v>0.025</v>
+      </c>
+      <c r="H11">
+        <v>1.37</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.796</v>
+      </c>
+      <c r="K11">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.299</v>
+      </c>
+      <c r="M11">
+        <v>0.0096957</v>
+      </c>
+      <c r="N11">
+        <v>0.2893043</v>
+      </c>
+      <c r="O11">
+        <v>0.05786086000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.23144344</v>
+      </c>
+      <c r="Q11">
+        <v>0.7284434400000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07743077407389561</v>
+      </c>
+      <c r="T11">
+        <v>1.158281242199033</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>30.83841290468971</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07153873352250521</v>
+      </c>
+      <c r="C12">
+        <v>6.242355204383113</v>
+      </c>
+      <c r="D12">
+        <v>6.882355204383113</v>
+      </c>
+      <c r="E12">
+        <v>-4.615</v>
+      </c>
+      <c r="F12">
+        <v>0.665</v>
+      </c>
+      <c r="G12">
+        <v>0.025</v>
+      </c>
+      <c r="H12">
+        <v>1.37</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.796</v>
+      </c>
+      <c r="K12">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.299</v>
+      </c>
+      <c r="M12">
+        <v>0.010773</v>
+      </c>
+      <c r="N12">
+        <v>0.288227</v>
+      </c>
+      <c r="O12">
+        <v>0.05764540000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.2305816</v>
+      </c>
+      <c r="Q12">
+        <v>0.7275816000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07804748169167246</v>
+      </c>
+      <c r="T12">
+        <v>1.16876579745768</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>27.75457161422074</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07144906263776539</v>
+      </c>
+      <c r="C13">
+        <v>6.185785311999826</v>
+      </c>
+      <c r="D13">
+        <v>6.892285311999825</v>
+      </c>
+      <c r="E13">
+        <v>-4.548500000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.7315</v>
+      </c>
+      <c r="G13">
+        <v>0.025</v>
+      </c>
+      <c r="H13">
+        <v>1.37</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.796</v>
+      </c>
+      <c r="K13">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.299</v>
+      </c>
+      <c r="M13">
+        <v>0.0118503</v>
+      </c>
+      <c r="N13">
+        <v>0.2871497</v>
+      </c>
+      <c r="O13">
+        <v>0.05742994000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.22971976</v>
+      </c>
+      <c r="Q13">
+        <v>0.72671976</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07867804790760156</v>
+      </c>
+      <c r="T13">
+        <v>1.179485960699667</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01296</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>25.23142874020067</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07135939175302561</v>
+      </c>
+      <c r="C14">
+        <v>6.129244116047818</v>
+      </c>
+      <c r="D14">
+        <v>6.902244116047818</v>
+      </c>
+      <c r="E14">
+        <v>-4.482</v>
+      </c>
+      <c r="F14">
+        <v>0.798</v>
+      </c>
+      <c r="G14">
+        <v>0.025</v>
+      </c>
+      <c r="H14">
+        <v>1.37</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.796</v>
+      </c>
+      <c r="K14">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.299</v>
+      </c>
+      <c r="M14">
+        <v>0.0129276</v>
+      </c>
+      <c r="N14">
+        <v>0.2860724</v>
+      </c>
+      <c r="O14">
+        <v>0.05721448000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.22885792</v>
+      </c>
+      <c r="Q14">
+        <v>0.72585792</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07932294517389273</v>
+      </c>
+      <c r="T14">
+        <v>1.190449764015336</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01296</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>23.12880967851728</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07126972086828577</v>
+      </c>
+      <c r="C15">
+        <v>6.072731741099282</v>
+      </c>
+      <c r="D15">
+        <v>6.912231741099282</v>
+      </c>
+      <c r="E15">
+        <v>-4.4155</v>
+      </c>
+      <c r="F15">
+        <v>0.8645</v>
+      </c>
+      <c r="G15">
+        <v>0.025</v>
+      </c>
+      <c r="H15">
+        <v>1.37</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.796</v>
+      </c>
+      <c r="K15">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.299</v>
+      </c>
+      <c r="M15">
+        <v>0.0140049</v>
+      </c>
+      <c r="N15">
+        <v>0.2849951</v>
+      </c>
+      <c r="O15">
+        <v>0.05699902</v>
+      </c>
+      <c r="P15">
+        <v>0.22799608</v>
+      </c>
+      <c r="Q15">
+        <v>0.72499608</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07998266766469629</v>
+      </c>
+      <c r="T15">
+        <v>1.201665608786538</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01296</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>21.34967047247749</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07118004998354596</v>
+      </c>
+      <c r="C16">
+        <v>6.016248312448463</v>
+      </c>
+      <c r="D16">
+        <v>6.922248312448462</v>
+      </c>
+      <c r="E16">
+        <v>-4.349</v>
+      </c>
+      <c r="F16">
+        <v>0.9310000000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.025</v>
+      </c>
+      <c r="H16">
+        <v>1.37</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.796</v>
+      </c>
+      <c r="K16">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.299</v>
+      </c>
+      <c r="M16">
+        <v>0.0150822</v>
+      </c>
+      <c r="N16">
+        <v>0.2839178</v>
+      </c>
+      <c r="O16">
+        <v>0.05678356</v>
+      </c>
+      <c r="P16">
+        <v>0.22713424</v>
+      </c>
+      <c r="Q16">
+        <v>0.72413424</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08065773253900695</v>
+      </c>
+      <c r="T16">
+        <v>1.21314228715707</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01296</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>19.82469401015767</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07109037909880617</v>
+      </c>
+      <c r="C17">
+        <v>5.959793956116924</v>
+      </c>
+      <c r="D17">
+        <v>6.932293956116924</v>
+      </c>
+      <c r="E17">
+        <v>-4.282500000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.025</v>
+      </c>
+      <c r="H17">
+        <v>1.37</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.796</v>
+      </c>
+      <c r="K17">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.299</v>
+      </c>
+      <c r="M17">
+        <v>0.0161595</v>
+      </c>
+      <c r="N17">
+        <v>0.2828405</v>
+      </c>
+      <c r="O17">
+        <v>0.0565681</v>
+      </c>
+      <c r="P17">
+        <v>0.2262724</v>
+      </c>
+      <c r="Q17">
+        <v>0.7232724</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08134868129271314</v>
+      </c>
+      <c r="T17">
+        <v>1.224889005018673</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01296</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>18.50304774281382</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07100070821406634</v>
+      </c>
+      <c r="C18">
+        <v>5.90336879885884</v>
+      </c>
+      <c r="D18">
+        <v>6.94236879885884</v>
+      </c>
+      <c r="E18">
+        <v>-4.216</v>
+      </c>
+      <c r="F18">
+        <v>1.064</v>
+      </c>
+      <c r="G18">
+        <v>0.025</v>
+      </c>
+      <c r="H18">
+        <v>1.37</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.796</v>
+      </c>
+      <c r="K18">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.299</v>
+      </c>
+      <c r="M18">
+        <v>0.0172368</v>
+      </c>
+      <c r="N18">
+        <v>0.2817632</v>
+      </c>
+      <c r="O18">
+        <v>0.05635264</v>
+      </c>
+      <c r="P18">
+        <v>0.22541056</v>
+      </c>
+      <c r="Q18">
+        <v>0.72241056</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08205608120722185</v>
+      </c>
+      <c r="T18">
+        <v>1.236915406638886</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01296</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>17.34660725888796</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07091103732932655</v>
+      </c>
+      <c r="C19">
+        <v>5.846972968166298</v>
+      </c>
+      <c r="D19">
+        <v>6.952472968166298</v>
+      </c>
+      <c r="E19">
+        <v>-4.1495</v>
+      </c>
+      <c r="F19">
+        <v>1.1305</v>
+      </c>
+      <c r="G19">
+        <v>0.025</v>
+      </c>
+      <c r="H19">
+        <v>1.37</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.796</v>
+      </c>
+      <c r="K19">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.299</v>
+      </c>
+      <c r="M19">
+        <v>0.0183141</v>
+      </c>
+      <c r="N19">
+        <v>0.2806859</v>
+      </c>
+      <c r="O19">
+        <v>0.05613718</v>
+      </c>
+      <c r="P19">
+        <v>0.22454872</v>
+      </c>
+      <c r="Q19">
+        <v>0.72154872</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08278052690280308</v>
+      </c>
+      <c r="T19">
+        <v>1.249231601069224</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01296</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>16.32621859660043</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07082136644458674</v>
+      </c>
+      <c r="C20">
+        <v>5.790606592274706</v>
+      </c>
+      <c r="D20">
+        <v>6.962606592274706</v>
+      </c>
+      <c r="E20">
+        <v>-4.083</v>
+      </c>
+      <c r="F20">
+        <v>1.197</v>
+      </c>
+      <c r="G20">
+        <v>0.025</v>
+      </c>
+      <c r="H20">
+        <v>1.37</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.796</v>
+      </c>
+      <c r="K20">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.299</v>
+      </c>
+      <c r="M20">
+        <v>0.0193914</v>
+      </c>
+      <c r="N20">
+        <v>0.2796086</v>
+      </c>
+      <c r="O20">
+        <v>0.05592172</v>
+      </c>
+      <c r="P20">
+        <v>0.22368688</v>
+      </c>
+      <c r="Q20">
+        <v>0.72068688</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08352264200559359</v>
+      </c>
+      <c r="T20">
+        <v>1.261848190485668</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01296</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>15.41920645234485</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07073169555984696</v>
+      </c>
+      <c r="C21">
+        <v>5.734269800168196</v>
+      </c>
+      <c r="D21">
+        <v>6.972769800168195</v>
+      </c>
+      <c r="E21">
+        <v>-4.016500000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.2635</v>
+      </c>
+      <c r="G21">
+        <v>0.025</v>
+      </c>
+      <c r="H21">
+        <v>1.37</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.796</v>
+      </c>
+      <c r="K21">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.299</v>
+      </c>
+      <c r="M21">
+        <v>0.0204687</v>
+      </c>
+      <c r="N21">
+        <v>0.2785313</v>
+      </c>
+      <c r="O21">
+        <v>0.05570626</v>
+      </c>
+      <c r="P21">
+        <v>0.22282504</v>
+      </c>
+      <c r="Q21">
+        <v>0.71982504</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08428308093808265</v>
+      </c>
+      <c r="T21">
+        <v>1.274776300628445</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01296</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>14.60766927064249</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07064202467510713</v>
+      </c>
+      <c r="C22">
+        <v>5.677962721585118</v>
+      </c>
+      <c r="D22">
+        <v>6.982962721585118</v>
+      </c>
+      <c r="E22">
+        <v>-3.95</v>
+      </c>
+      <c r="F22">
+        <v>1.33</v>
+      </c>
+      <c r="G22">
+        <v>0.025</v>
+      </c>
+      <c r="H22">
+        <v>1.37</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.796</v>
+      </c>
+      <c r="K22">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.299</v>
+      </c>
+      <c r="M22">
+        <v>0.021546</v>
+      </c>
+      <c r="N22">
+        <v>0.277454</v>
+      </c>
+      <c r="O22">
+        <v>0.0554908</v>
+      </c>
+      <c r="P22">
+        <v>0.2219632</v>
+      </c>
+      <c r="Q22">
+        <v>0.7189632</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08506253084388392</v>
+      </c>
+      <c r="T22">
+        <v>1.28802761352479</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01296</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>13.87728580711037</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07082115379036732</v>
+      </c>
+      <c r="C23">
+        <v>5.5911306592432</v>
+      </c>
+      <c r="D23">
+        <v>6.962630659243199</v>
+      </c>
+      <c r="E23">
+        <v>-3.8835</v>
+      </c>
+      <c r="F23">
+        <v>1.3965</v>
+      </c>
+      <c r="G23">
+        <v>0.025</v>
+      </c>
+      <c r="H23">
+        <v>1.37</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.796</v>
+      </c>
+      <c r="K23">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.299</v>
+      </c>
+      <c r="M23">
+        <v>0.0248577</v>
+      </c>
+      <c r="N23">
+        <v>0.2741423</v>
+      </c>
+      <c r="O23">
+        <v>0.05482846</v>
+      </c>
+      <c r="P23">
+        <v>0.21931384</v>
+      </c>
+      <c r="Q23">
+        <v>0.7163138400000001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08586171365869281</v>
+      </c>
+      <c r="T23">
+        <v>1.301614402696992</v>
+      </c>
+      <c r="U23">
+        <v>0.0178</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01424</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>12.02846602863499</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07074428290562754</v>
+      </c>
+      <c r="C24">
+        <v>5.533341373301242</v>
+      </c>
+      <c r="D24">
+        <v>6.971341373301242</v>
+      </c>
+      <c r="E24">
+        <v>-3.817</v>
+      </c>
+      <c r="F24">
+        <v>1.463</v>
+      </c>
+      <c r="G24">
+        <v>0.025</v>
+      </c>
+      <c r="H24">
+        <v>1.37</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.796</v>
+      </c>
+      <c r="K24">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.299</v>
+      </c>
+      <c r="M24">
+        <v>0.0260414</v>
+      </c>
+      <c r="N24">
+        <v>0.2729586</v>
+      </c>
+      <c r="O24">
+        <v>0.05459172</v>
+      </c>
+      <c r="P24">
+        <v>0.21836688</v>
+      </c>
+      <c r="Q24">
+        <v>0.71536688</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08668138834054812</v>
+      </c>
+      <c r="T24">
+        <v>1.315549571078739</v>
+      </c>
+      <c r="U24">
+        <v>0.0178</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01424</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>11.48171757278794</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.07066741202088772</v>
+      </c>
+      <c r="C25">
+        <v>5.475573910026215</v>
+      </c>
+      <c r="D25">
+        <v>6.980073910026214</v>
+      </c>
+      <c r="E25">
+        <v>-3.7505</v>
+      </c>
+      <c r="F25">
+        <v>1.5295</v>
+      </c>
+      <c r="G25">
+        <v>0.025</v>
+      </c>
+      <c r="H25">
+        <v>1.37</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.796</v>
+      </c>
+      <c r="K25">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.299</v>
+      </c>
+      <c r="M25">
+        <v>0.0272251</v>
+      </c>
+      <c r="N25">
+        <v>0.2717749</v>
+      </c>
+      <c r="O25">
+        <v>0.05435498</v>
+      </c>
+      <c r="P25">
+        <v>0.21741992</v>
+      </c>
+      <c r="Q25">
+        <v>0.7144199200000001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08752235327388015</v>
+      </c>
+      <c r="T25">
+        <v>1.329846691885985</v>
+      </c>
+      <c r="U25">
+        <v>0.0178</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>0.01424</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>10.9825124609276</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07101294113614789</v>
+      </c>
+      <c r="C26">
+        <v>5.369992661941454</v>
+      </c>
+      <c r="D26">
+        <v>6.940992661941454</v>
+      </c>
+      <c r="E26">
+        <v>-3.684</v>
+      </c>
+      <c r="F26">
+        <v>1.596</v>
+      </c>
+      <c r="G26">
+        <v>0.025</v>
+      </c>
+      <c r="H26">
+        <v>1.37</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.796</v>
+      </c>
+      <c r="K26">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.299</v>
+      </c>
+      <c r="M26">
+        <v>0.03192</v>
+      </c>
+      <c r="N26">
+        <v>0.26708</v>
+      </c>
+      <c r="O26">
+        <v>0.053416</v>
+      </c>
+      <c r="P26">
+        <v>0.213664</v>
+      </c>
+      <c r="Q26">
+        <v>0.7106640000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08838544886335251</v>
+      </c>
+      <c r="T26">
+        <v>1.344520052714474</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+      <c r="W26">
+        <v>0.016</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>9.367167919799499</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0709536702514081</v>
+      </c>
+      <c r="C27">
+        <v>5.310165399742273</v>
+      </c>
+      <c r="D27">
+        <v>6.947665399742273</v>
+      </c>
+      <c r="E27">
+        <v>-3.6175</v>
+      </c>
+      <c r="F27">
+        <v>1.6625</v>
+      </c>
+      <c r="G27">
+        <v>0.025</v>
+      </c>
+      <c r="H27">
+        <v>1.37</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.796</v>
+      </c>
+      <c r="K27">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.299</v>
+      </c>
+      <c r="M27">
+        <v>0.03324999999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.26575</v>
+      </c>
+      <c r="O27">
+        <v>0.05315</v>
+      </c>
+      <c r="P27">
+        <v>0.2126</v>
+      </c>
+      <c r="Q27">
+        <v>0.7096</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08927156033521079</v>
+      </c>
+      <c r="T27">
+        <v>1.359584703165056</v>
+      </c>
+      <c r="U27">
+        <v>0.02</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.016</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>8.99248120300752</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07089439936666829</v>
+      </c>
+      <c r="C28">
+        <v>5.250350979589679</v>
+      </c>
+      <c r="D28">
+        <v>6.954350979589679</v>
+      </c>
+      <c r="E28">
+        <v>-3.551</v>
+      </c>
+      <c r="F28">
+        <v>1.729</v>
+      </c>
+      <c r="G28">
+        <v>0.025</v>
+      </c>
+      <c r="H28">
+        <v>1.37</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.796</v>
+      </c>
+      <c r="K28">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.299</v>
+      </c>
+      <c r="M28">
+        <v>0.03458</v>
+      </c>
+      <c r="N28">
+        <v>0.26442</v>
+      </c>
+      <c r="O28">
+        <v>0.052884</v>
+      </c>
+      <c r="P28">
+        <v>0.211536</v>
+      </c>
+      <c r="Q28">
+        <v>0.7085360000000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09018162076576797</v>
+      </c>
+      <c r="T28">
+        <v>1.375056506330519</v>
+      </c>
+      <c r="U28">
+        <v>0.02</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.016</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>8.646616541353383</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07083512848192849</v>
+      </c>
+      <c r="C29">
+        <v>5.190549438592204</v>
+      </c>
+      <c r="D29">
+        <v>6.961049438592204</v>
+      </c>
+      <c r="E29">
+        <v>-3.4845</v>
+      </c>
+      <c r="F29">
+        <v>1.7955</v>
+      </c>
+      <c r="G29">
+        <v>0.025</v>
+      </c>
+      <c r="H29">
+        <v>1.37</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.796</v>
+      </c>
+      <c r="K29">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.299</v>
+      </c>
+      <c r="M29">
+        <v>0.03591</v>
+      </c>
+      <c r="N29">
+        <v>0.26309</v>
+      </c>
+      <c r="O29">
+        <v>0.052618</v>
+      </c>
+      <c r="P29">
+        <v>0.210472</v>
+      </c>
+      <c r="Q29">
+        <v>0.7074720000000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09111661435880615</v>
+      </c>
+      <c r="T29">
+        <v>1.390952194514214</v>
+      </c>
+      <c r="U29">
+        <v>0.02</v>
+      </c>
+      <c r="V29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.016</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>8.326371484266222</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07077585759718868</v>
+      </c>
+      <c r="C30">
+        <v>5.130760814001496</v>
+      </c>
+      <c r="D30">
+        <v>6.967760814001496</v>
+      </c>
+      <c r="E30">
+        <v>-3.418</v>
+      </c>
+      <c r="F30">
+        <v>1.862</v>
+      </c>
+      <c r="G30">
+        <v>0.025</v>
+      </c>
+      <c r="H30">
+        <v>1.37</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.796</v>
+      </c>
+      <c r="K30">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.299</v>
+      </c>
+      <c r="M30">
+        <v>0.03724</v>
+      </c>
+      <c r="N30">
+        <v>0.26176</v>
+      </c>
+      <c r="O30">
+        <v>0.052352</v>
+      </c>
+      <c r="P30">
+        <v>0.209408</v>
+      </c>
+      <c r="Q30">
+        <v>0.706408</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09207757999609539</v>
+      </c>
+      <c r="T30">
+        <v>1.4072894295919</v>
+      </c>
+      <c r="U30">
+        <v>0.02</v>
+      </c>
+      <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.016</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>8.029001074113856</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07097178671244889</v>
+      </c>
+      <c r="C31">
+        <v>5.042124480932417</v>
+      </c>
+      <c r="D31">
+        <v>6.945624480932416</v>
+      </c>
+      <c r="E31">
+        <v>-3.351500000000001</v>
+      </c>
+      <c r="F31">
+        <v>1.9285</v>
+      </c>
+      <c r="G31">
+        <v>0.025</v>
+      </c>
+      <c r="H31">
+        <v>1.37</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.796</v>
+      </c>
+      <c r="K31">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.299</v>
+      </c>
+      <c r="M31">
+        <v>0.04069135</v>
+      </c>
+      <c r="N31">
+        <v>0.25830865</v>
+      </c>
+      <c r="O31">
+        <v>0.05166173</v>
+      </c>
+      <c r="P31">
+        <v>0.20664692</v>
+      </c>
+      <c r="Q31">
+        <v>0.7036469200000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09306561508795617</v>
+      </c>
+      <c r="T31">
+        <v>1.424086868474592</v>
+      </c>
+      <c r="U31">
+        <v>0.0211</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+      <c r="W31">
+        <v>0.01688</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>7.347999021905146</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07092131582770907</v>
+      </c>
+      <c r="C32">
+        <v>4.981313288578189</v>
+      </c>
+      <c r="D32">
+        <v>6.951313288578189</v>
+      </c>
+      <c r="E32">
+        <v>-3.285</v>
+      </c>
+      <c r="F32">
+        <v>1.995</v>
+      </c>
+      <c r="G32">
+        <v>0.025</v>
+      </c>
+      <c r="H32">
+        <v>1.37</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.796</v>
+      </c>
+      <c r="K32">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.299</v>
+      </c>
+      <c r="M32">
+        <v>0.04209450000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.2569055</v>
+      </c>
+      <c r="O32">
+        <v>0.05138110000000001</v>
+      </c>
+      <c r="P32">
+        <v>0.2055244</v>
+      </c>
+      <c r="Q32">
+        <v>0.7025244</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.0940818797538701</v>
+      </c>
+      <c r="T32">
+        <v>1.441364234182503</v>
+      </c>
+      <c r="U32">
+        <v>0.0211</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.01688</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>7.103065721174975</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07087084494296925</v>
+      </c>
+      <c r="C33">
+        <v>4.92051142268863</v>
+      </c>
+      <c r="D33">
+        <v>6.95701142268863</v>
+      </c>
+      <c r="E33">
+        <v>-3.2185</v>
+      </c>
+      <c r="F33">
+        <v>2.0615</v>
+      </c>
+      <c r="G33">
+        <v>0.025</v>
+      </c>
+      <c r="H33">
+        <v>1.37</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.796</v>
+      </c>
+      <c r="K33">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.299</v>
+      </c>
+      <c r="M33">
+        <v>0.04349765000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.25550235</v>
+      </c>
+      <c r="O33">
+        <v>0.05110047</v>
+      </c>
+      <c r="P33">
+        <v>0.20440188</v>
+      </c>
+      <c r="Q33">
+        <v>0.70140188</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09512760136662211</v>
+      </c>
+      <c r="T33">
+        <v>1.459142393099339</v>
+      </c>
+      <c r="U33">
+        <v>0.0211</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.01688</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>6.873934568879007</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07082037405822945</v>
+      </c>
+      <c r="C34">
+        <v>4.859718906217836</v>
+      </c>
+      <c r="D34">
+        <v>6.962718906217836</v>
+      </c>
+      <c r="E34">
+        <v>-3.152</v>
+      </c>
+      <c r="F34">
+        <v>2.128</v>
+      </c>
+      <c r="G34">
+        <v>0.025</v>
+      </c>
+      <c r="H34">
+        <v>1.37</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.796</v>
+      </c>
+      <c r="K34">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.299</v>
+      </c>
+      <c r="M34">
+        <v>0.0449008</v>
+      </c>
+      <c r="N34">
+        <v>0.2540992</v>
+      </c>
+      <c r="O34">
+        <v>0.05081984</v>
+      </c>
+      <c r="P34">
+        <v>0.20327936</v>
+      </c>
+      <c r="Q34">
+        <v>0.70027936</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09620407949739626</v>
+      </c>
+      <c r="T34">
+        <v>1.477443439043142</v>
+      </c>
+      <c r="U34">
+        <v>0.0211</v>
+      </c>
+      <c r="V34">
+        <v>0.2</v>
+      </c>
+      <c r="W34">
+        <v>0.01688</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>6.659124113601538</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07076990317348965</v>
+      </c>
+      <c r="C35">
+        <v>4.798935762195299</v>
+      </c>
+      <c r="D35">
+        <v>6.968435762195298</v>
+      </c>
+      <c r="E35">
+        <v>-3.0855</v>
+      </c>
+      <c r="F35">
+        <v>2.1945</v>
+      </c>
+      <c r="G35">
+        <v>0.025</v>
+      </c>
+      <c r="H35">
+        <v>1.37</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.796</v>
+      </c>
+      <c r="K35">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.299</v>
+      </c>
+      <c r="M35">
+        <v>0.04630395</v>
+      </c>
+      <c r="N35">
+        <v>0.25269605</v>
+      </c>
+      <c r="O35">
+        <v>0.05053921</v>
+      </c>
+      <c r="P35">
+        <v>0.20215684</v>
+      </c>
+      <c r="Q35">
+        <v>0.6991568400000001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09731269130371591</v>
+      </c>
+      <c r="T35">
+        <v>1.496290784865863</v>
+      </c>
+      <c r="U35">
+        <v>0.0211</v>
+      </c>
+      <c r="V35">
+        <v>0.2</v>
+      </c>
+      <c r="W35">
+        <v>0.01688</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>6.457332473795432</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07112743228874983</v>
+      </c>
+      <c r="C36">
+        <v>4.69213943125324</v>
+      </c>
+      <c r="D36">
+        <v>6.92813943125324</v>
+      </c>
+      <c r="E36">
+        <v>-3.019</v>
+      </c>
+      <c r="F36">
+        <v>2.261</v>
+      </c>
+      <c r="G36">
+        <v>0.025</v>
+      </c>
+      <c r="H36">
+        <v>1.37</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.796</v>
+      </c>
+      <c r="K36">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.299</v>
+      </c>
+      <c r="M36">
+        <v>0.0510986</v>
+      </c>
+      <c r="N36">
+        <v>0.2479014</v>
+      </c>
+      <c r="O36">
+        <v>0.04958028</v>
+      </c>
+      <c r="P36">
+        <v>0.19832112</v>
+      </c>
+      <c r="Q36">
+        <v>0.69532112</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09845489740719672</v>
+      </c>
+      <c r="T36">
+        <v>1.515709262380182</v>
+      </c>
+      <c r="U36">
+        <v>0.0226</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>0.01808</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>5.851432328870066</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07108896140401003</v>
+      </c>
+      <c r="C37">
+        <v>4.629953011664121</v>
+      </c>
+      <c r="D37">
+        <v>6.932453011664121</v>
+      </c>
+      <c r="E37">
+        <v>-2.9525</v>
+      </c>
+      <c r="F37">
+        <v>2.3275</v>
+      </c>
+      <c r="G37">
+        <v>0.025</v>
+      </c>
+      <c r="H37">
+        <v>1.37</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.796</v>
+      </c>
+      <c r="K37">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L37">
+        <v>0.299</v>
+      </c>
+      <c r="M37">
+        <v>0.0526015</v>
+      </c>
+      <c r="N37">
+        <v>0.2463985</v>
+      </c>
+      <c r="O37">
+        <v>0.0492797</v>
+      </c>
+      <c r="P37">
+        <v>0.1971188</v>
+      </c>
+      <c r="Q37">
+        <v>0.6941188</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.0996322483138616</v>
+      </c>
+      <c r="T37">
+        <v>1.535725231510327</v>
+      </c>
+      <c r="U37">
+        <v>0.0226</v>
+      </c>
+      <c r="V37">
+        <v>0.2</v>
+      </c>
+      <c r="W37">
+        <v>0.01808</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>5.684248548045208</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07105049051927023</v>
+      </c>
+      <c r="C38">
+        <v>4.56777196684218</v>
+      </c>
+      <c r="D38">
+        <v>6.93677196684218</v>
+      </c>
+      <c r="E38">
+        <v>-2.886</v>
+      </c>
+      <c r="F38">
+        <v>2.394</v>
+      </c>
+      <c r="G38">
+        <v>0.025</v>
+      </c>
+      <c r="H38">
+        <v>1.37</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.796</v>
+      </c>
+      <c r="K38">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.299</v>
+      </c>
+      <c r="M38">
+        <v>0.0541044</v>
+      </c>
+      <c r="N38">
+        <v>0.2448956</v>
+      </c>
+      <c r="O38">
+        <v>0.04897912</v>
+      </c>
+      <c r="P38">
+        <v>0.19591648</v>
+      </c>
+      <c r="Q38">
+        <v>0.6929164800000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1008463914363597</v>
+      </c>
+      <c r="T38">
+        <v>1.556366699675788</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.2</v>
+      </c>
+      <c r="W38">
+        <v>0.01808</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>5.526352755043952</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07101201963453044</v>
+      </c>
+      <c r="C39">
+        <v>4.505596306839202</v>
+      </c>
+      <c r="D39">
+        <v>6.941096306839201</v>
+      </c>
+      <c r="E39">
+        <v>-2.8195</v>
+      </c>
+      <c r="F39">
+        <v>2.4605</v>
+      </c>
+      <c r="G39">
+        <v>0.025</v>
+      </c>
+      <c r="H39">
+        <v>1.37</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.796</v>
+      </c>
+      <c r="K39">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.299</v>
+      </c>
+      <c r="M39">
+        <v>0.0556073</v>
+      </c>
+      <c r="N39">
+        <v>0.2433927</v>
+      </c>
+      <c r="O39">
+        <v>0.04867854</v>
+      </c>
+      <c r="P39">
+        <v>0.19471416</v>
+      </c>
+      <c r="Q39">
+        <v>0.6917141600000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1020990787849689</v>
+      </c>
+      <c r="T39">
+        <v>1.577663452544915</v>
+      </c>
+      <c r="U39">
+        <v>0.0226</v>
+      </c>
+      <c r="V39">
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>0.01808</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>5.376991869772493</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07097354874979062</v>
+      </c>
+      <c r="C40">
+        <v>4.443426041732061</v>
+      </c>
+      <c r="D40">
+        <v>6.945426041732061</v>
+      </c>
+      <c r="E40">
+        <v>-2.753</v>
+      </c>
+      <c r="F40">
+        <v>2.527</v>
+      </c>
+      <c r="G40">
+        <v>0.025</v>
+      </c>
+      <c r="H40">
+        <v>1.37</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.796</v>
+      </c>
+      <c r="K40">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.299</v>
+      </c>
+      <c r="M40">
+        <v>0.0571102</v>
+      </c>
+      <c r="N40">
+        <v>0.2418898</v>
+      </c>
+      <c r="O40">
+        <v>0.04837796</v>
+      </c>
+      <c r="P40">
+        <v>0.19351184</v>
+      </c>
+      <c r="Q40">
+        <v>0.6905118400000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1033921754028881</v>
+      </c>
+      <c r="T40">
+        <v>1.599647197442078</v>
+      </c>
+      <c r="U40">
+        <v>0.0226</v>
+      </c>
+      <c r="V40">
+        <v>0.2</v>
+      </c>
+      <c r="W40">
+        <v>0.01808</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>5.235492083725849</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07093507786505081</v>
+      </c>
+      <c r="C41">
+        <v>4.381261181622779</v>
+      </c>
+      <c r="D41">
+        <v>6.949761181622779</v>
+      </c>
+      <c r="E41">
+        <v>-2.6865</v>
+      </c>
+      <c r="F41">
+        <v>2.5935</v>
+      </c>
+      <c r="G41">
+        <v>0.025</v>
+      </c>
+      <c r="H41">
+        <v>1.37</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.796</v>
+      </c>
+      <c r="K41">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.299</v>
+      </c>
+      <c r="M41">
+        <v>0.0586131</v>
+      </c>
+      <c r="N41">
+        <v>0.2403869</v>
+      </c>
+      <c r="O41">
+        <v>0.04807738</v>
+      </c>
+      <c r="P41">
+        <v>0.19230952</v>
+      </c>
+      <c r="Q41">
+        <v>0.68930952</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1047276686312308</v>
+      </c>
+      <c r="T41">
+        <v>1.62235172086046</v>
+      </c>
+      <c r="U41">
+        <v>0.0226</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.01808</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>5.101248696963648</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.070896606980311</v>
+      </c>
+      <c r="C42">
+        <v>4.319101736638624</v>
+      </c>
+      <c r="D42">
+        <v>6.954101736638624</v>
+      </c>
+      <c r="E42">
+        <v>-2.62</v>
+      </c>
+      <c r="F42">
+        <v>2.66</v>
+      </c>
+      <c r="G42">
+        <v>0.025</v>
+      </c>
+      <c r="H42">
+        <v>1.37</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.796</v>
+      </c>
+      <c r="K42">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.299</v>
+      </c>
+      <c r="M42">
+        <v>0.060116</v>
+      </c>
+      <c r="N42">
+        <v>0.238884</v>
+      </c>
+      <c r="O42">
+        <v>0.0477768</v>
+      </c>
+      <c r="P42">
+        <v>0.1911072</v>
+      </c>
+      <c r="Q42">
+        <v>0.6881072</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1061076783005183</v>
+      </c>
+      <c r="T42">
+        <v>1.645813061726121</v>
+      </c>
+      <c r="U42">
+        <v>0.0226</v>
+      </c>
+      <c r="V42">
+        <v>0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.01808</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>4.973717479539556</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07085813609557119</v>
+      </c>
+      <c r="C43">
+        <v>4.256947716932176</v>
+      </c>
+      <c r="D43">
+        <v>6.958447716932176</v>
+      </c>
+      <c r="E43">
+        <v>-2.5535</v>
+      </c>
+      <c r="F43">
+        <v>2.7265</v>
+      </c>
+      <c r="G43">
+        <v>0.025</v>
+      </c>
+      <c r="H43">
+        <v>1.37</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.796</v>
+      </c>
+      <c r="K43">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.299</v>
+      </c>
+      <c r="M43">
+        <v>0.0616189</v>
+      </c>
+      <c r="N43">
+        <v>0.2373811</v>
+      </c>
+      <c r="O43">
+        <v>0.04747622</v>
+      </c>
+      <c r="P43">
+        <v>0.18990488</v>
+      </c>
+      <c r="Q43">
+        <v>0.6869048800000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1075344679585953</v>
+      </c>
+      <c r="T43">
+        <v>1.670069702282143</v>
+      </c>
+      <c r="U43">
+        <v>0.0226</v>
+      </c>
+      <c r="V43">
+        <v>0.2</v>
+      </c>
+      <c r="W43">
+        <v>0.01808</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>4.852407297111762</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07081966521083138</v>
+      </c>
+      <c r="C44">
+        <v>4.194799132681411</v>
+      </c>
+      <c r="D44">
+        <v>6.962799132681411</v>
+      </c>
+      <c r="E44">
+        <v>-2.487</v>
+      </c>
+      <c r="F44">
+        <v>2.793</v>
+      </c>
+      <c r="G44">
+        <v>0.025</v>
+      </c>
+      <c r="H44">
+        <v>1.37</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.796</v>
+      </c>
+      <c r="K44">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.299</v>
+      </c>
+      <c r="M44">
+        <v>0.06312180000000001</v>
+      </c>
+      <c r="N44">
+        <v>0.2358782</v>
+      </c>
+      <c r="O44">
+        <v>0.04717564</v>
+      </c>
+      <c r="P44">
+        <v>0.18870256</v>
+      </c>
+      <c r="Q44">
+        <v>0.6857025600000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1090104572600541</v>
+      </c>
+      <c r="T44">
+        <v>1.695162778719407</v>
+      </c>
+      <c r="U44">
+        <v>0.0226</v>
+      </c>
+      <c r="V44">
+        <v>0.2</v>
+      </c>
+      <c r="W44">
+        <v>0.01808</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>4.736873790037673</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07078119432609159</v>
+      </c>
+      <c r="C45">
+        <v>4.132655994089779</v>
+      </c>
+      <c r="D45">
+        <v>6.967155994089778</v>
+      </c>
+      <c r="E45">
+        <v>-2.4205</v>
+      </c>
+      <c r="F45">
+        <v>2.8595</v>
+      </c>
+      <c r="G45">
+        <v>0.025</v>
+      </c>
+      <c r="H45">
+        <v>1.37</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.796</v>
+      </c>
+      <c r="K45">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.299</v>
+      </c>
+      <c r="M45">
+        <v>0.06462469999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.2343753</v>
+      </c>
+      <c r="O45">
+        <v>0.04687506</v>
+      </c>
+      <c r="P45">
+        <v>0.18750024</v>
+      </c>
+      <c r="Q45">
+        <v>0.6845002400000001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1105382356598098</v>
+      </c>
+      <c r="T45">
+        <v>1.721136313979033</v>
+      </c>
+      <c r="U45">
+        <v>0.0226</v>
+      </c>
+      <c r="V45">
+        <v>0.2</v>
+      </c>
+      <c r="W45">
+        <v>0.01808</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>4.626713934455402</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07074272344135178</v>
+      </c>
+      <c r="C46">
+        <v>4.070518311386289</v>
+      </c>
+      <c r="D46">
+        <v>6.971518311386289</v>
+      </c>
+      <c r="E46">
+        <v>-2.354</v>
+      </c>
+      <c r="F46">
+        <v>2.926</v>
+      </c>
+      <c r="G46">
+        <v>0.025</v>
+      </c>
+      <c r="H46">
+        <v>1.37</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.796</v>
+      </c>
+      <c r="K46">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0.299</v>
+      </c>
+      <c r="M46">
+        <v>0.06612759999999999</v>
+      </c>
+      <c r="N46">
+        <v>0.2328724</v>
+      </c>
+      <c r="O46">
+        <v>0.04657448</v>
+      </c>
+      <c r="P46">
+        <v>0.18629792</v>
+      </c>
+      <c r="Q46">
+        <v>0.68329792</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1121205775738425</v>
+      </c>
+      <c r="T46">
+        <v>1.74803747549793</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.2</v>
+      </c>
+      <c r="W46">
+        <v>0.01808</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>4.521561345035961</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1030992980590525</v>
+      </c>
+      <c r="C47">
+        <v>1.599155406132734</v>
+      </c>
+      <c r="D47">
+        <v>4.566655406132734</v>
+      </c>
+      <c r="E47">
+        <v>-2.2875</v>
+      </c>
+      <c r="F47">
+        <v>2.9925</v>
+      </c>
+      <c r="G47">
+        <v>0.025</v>
+      </c>
+      <c r="H47">
+        <v>1.37</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.796</v>
+      </c>
+      <c r="K47">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.299</v>
+      </c>
+      <c r="M47">
+        <v>0.3261825</v>
+      </c>
+      <c r="N47">
+        <v>-0.02718250000000005</v>
+      </c>
+      <c r="O47">
+        <v>-0.005436500000000011</v>
+      </c>
+      <c r="P47">
+        <v>-0.02174600000000004</v>
+      </c>
+      <c r="Q47">
+        <v>0.475254</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.114621416840109</v>
+      </c>
+      <c r="T47">
+        <v>1.79055387504345</v>
+      </c>
+      <c r="U47">
+        <v>0.109</v>
+      </c>
+      <c r="V47">
+        <v>0.1833329501122838</v>
+      </c>
+      <c r="W47">
+        <v>0.08901670843776106</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.9166647505614187</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1040962980590525</v>
+      </c>
+      <c r="C48">
+        <v>1.484626574489138</v>
+      </c>
+      <c r="D48">
+        <v>4.518626574489138</v>
+      </c>
+      <c r="E48">
+        <v>-2.221</v>
+      </c>
+      <c r="F48">
+        <v>3.059</v>
+      </c>
+      <c r="G48">
+        <v>0.025</v>
+      </c>
+      <c r="H48">
+        <v>1.37</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.796</v>
+      </c>
+      <c r="K48">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0.299</v>
+      </c>
+      <c r="M48">
+        <v>0.333431</v>
+      </c>
+      <c r="N48">
+        <v>-0.03443100000000004</v>
+      </c>
+      <c r="O48">
+        <v>-0.006886200000000009</v>
+      </c>
+      <c r="P48">
+        <v>-0.02754480000000004</v>
+      </c>
+      <c r="Q48">
+        <v>0.4694552</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1165718134482592</v>
+      </c>
+      <c r="T48">
+        <v>1.823712280136848</v>
+      </c>
+      <c r="U48">
+        <v>0.109</v>
+      </c>
+      <c r="V48">
+        <v>0.1793474511967993</v>
+      </c>
+      <c r="W48">
+        <v>0.08945112781954888</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.8967372559839966</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1050932980590525</v>
+      </c>
+      <c r="C49">
+        <v>1.371097494312898</v>
+      </c>
+      <c r="D49">
+        <v>4.471597494312897</v>
+      </c>
+      <c r="E49">
+        <v>-2.1545</v>
+      </c>
+      <c r="F49">
+        <v>3.1255</v>
+      </c>
+      <c r="G49">
+        <v>0.025</v>
+      </c>
+      <c r="H49">
+        <v>1.37</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.796</v>
+      </c>
+      <c r="K49">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.299</v>
+      </c>
+      <c r="M49">
+        <v>0.3406795</v>
+      </c>
+      <c r="N49">
+        <v>-0.04167950000000004</v>
+      </c>
+      <c r="O49">
+        <v>-0.008335900000000007</v>
+      </c>
+      <c r="P49">
+        <v>-0.03334360000000003</v>
+      </c>
+      <c r="Q49">
+        <v>0.4636564</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.118595809928415</v>
+      </c>
+      <c r="T49">
+        <v>1.858121945799807</v>
+      </c>
+      <c r="U49">
+        <v>0.109</v>
+      </c>
+      <c r="V49">
+        <v>0.1755315479798462</v>
+      </c>
+      <c r="W49">
+        <v>0.08986706127019677</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.8776577398992307</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1060902980590524</v>
+      </c>
+      <c r="C50">
+        <v>1.258537271426612</v>
+      </c>
+      <c r="D50">
+        <v>4.425537271426612</v>
+      </c>
+      <c r="E50">
+        <v>-2.088</v>
+      </c>
+      <c r="F50">
+        <v>3.192</v>
+      </c>
+      <c r="G50">
+        <v>0.025</v>
+      </c>
+      <c r="H50">
+        <v>1.37</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.796</v>
+      </c>
+      <c r="K50">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0.299</v>
+      </c>
+      <c r="M50">
+        <v>0.347928</v>
+      </c>
+      <c r="N50">
+        <v>-0.04892800000000003</v>
+      </c>
+      <c r="O50">
+        <v>-0.009785600000000005</v>
+      </c>
+      <c r="P50">
+        <v>-0.03914240000000002</v>
+      </c>
+      <c r="Q50">
+        <v>0.4578576</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1206976524270384</v>
+      </c>
+      <c r="T50">
+        <v>1.893855060142111</v>
+      </c>
+      <c r="U50">
+        <v>0.109</v>
+      </c>
+      <c r="V50">
+        <v>0.171874640730266</v>
+      </c>
+      <c r="W50">
+        <v>0.09026566416040101</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.8593732036513301</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1070872980590525</v>
+      </c>
+      <c r="C51">
+        <v>1.14691627159136</v>
+      </c>
+      <c r="D51">
+        <v>4.380416271591359</v>
+      </c>
+      <c r="E51">
+        <v>-2.0215</v>
+      </c>
+      <c r="F51">
+        <v>3.2585</v>
+      </c>
+      <c r="G51">
+        <v>0.025</v>
+      </c>
+      <c r="H51">
+        <v>1.37</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.796</v>
+      </c>
+      <c r="K51">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.299</v>
+      </c>
+      <c r="M51">
+        <v>0.3551765</v>
+      </c>
+      <c r="N51">
+        <v>-0.05617650000000002</v>
+      </c>
+      <c r="O51">
+        <v>-0.0112353</v>
+      </c>
+      <c r="P51">
+        <v>-0.04494120000000001</v>
+      </c>
+      <c r="Q51">
+        <v>0.4520588</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1228819201216862</v>
+      </c>
+      <c r="T51">
+        <v>1.930989473086074</v>
+      </c>
+      <c r="U51">
+        <v>0.109</v>
+      </c>
+      <c r="V51">
+        <v>0.1683669950010769</v>
+      </c>
+      <c r="W51">
+        <v>0.09064799754488262</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.8418349750053846</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1080842980590524</v>
+      </c>
+      <c r="C52">
+        <v>1.036206056925808</v>
+      </c>
+      <c r="D52">
+        <v>4.336206056925808</v>
+      </c>
+      <c r="E52">
+        <v>-1.955</v>
+      </c>
+      <c r="F52">
+        <v>3.325</v>
+      </c>
+      <c r="G52">
+        <v>0.025</v>
+      </c>
+      <c r="H52">
+        <v>1.37</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.796</v>
+      </c>
+      <c r="K52">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.299</v>
+      </c>
+      <c r="M52">
+        <v>0.362425</v>
+      </c>
+      <c r="N52">
+        <v>-0.06342500000000001</v>
+      </c>
+      <c r="O52">
+        <v>-0.012685</v>
+      </c>
+      <c r="P52">
+        <v>-0.05074000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>0.44626</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1251535585241199</v>
+      </c>
+      <c r="T52">
+        <v>1.969609262547795</v>
+      </c>
+      <c r="U52">
+        <v>0.109</v>
+      </c>
+      <c r="V52">
+        <v>0.1649996551010554</v>
+      </c>
+      <c r="W52">
+        <v>0.09101503759398497</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.8249982755052769</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1090812980590525</v>
+      </c>
+      <c r="C53">
+        <v>0.9263793261370732</v>
+      </c>
+      <c r="D53">
+        <v>4.292879326137073</v>
+      </c>
+      <c r="E53">
+        <v>-1.8885</v>
+      </c>
+      <c r="F53">
+        <v>3.3915</v>
+      </c>
+      <c r="G53">
+        <v>0.025</v>
+      </c>
+      <c r="H53">
+        <v>1.37</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.796</v>
+      </c>
+      <c r="K53">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.299</v>
+      </c>
+      <c r="M53">
+        <v>0.3696735</v>
+      </c>
+      <c r="N53">
+        <v>-0.07067350000000006</v>
+      </c>
+      <c r="O53">
+        <v>-0.01413470000000001</v>
+      </c>
+      <c r="P53">
+        <v>-0.05653880000000004</v>
+      </c>
+      <c r="Q53">
+        <v>0.4404612</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1275179168613469</v>
+      </c>
+      <c r="T53">
+        <v>2.00980536994673</v>
+      </c>
+      <c r="U53">
+        <v>0.109</v>
+      </c>
+      <c r="V53">
+        <v>0.1617643677461327</v>
+      </c>
+      <c r="W53">
+        <v>0.09136768391567154</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.8088218387306636</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1274614299346923</v>
+      </c>
+      <c r="C54">
+        <v>0.1921175346267847</v>
+      </c>
+      <c r="D54">
+        <v>3.625117534626785</v>
+      </c>
+      <c r="E54">
+        <v>-1.822</v>
+      </c>
+      <c r="F54">
+        <v>3.458</v>
+      </c>
+      <c r="G54">
+        <v>0.025</v>
+      </c>
+      <c r="H54">
+        <v>1.37</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.796</v>
+      </c>
+      <c r="K54">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.299</v>
+      </c>
+      <c r="M54">
+        <v>0.4848116</v>
+      </c>
+      <c r="N54">
+        <v>-0.1858116</v>
+      </c>
+      <c r="O54">
+        <v>-0.03716232000000001</v>
+      </c>
+      <c r="P54">
+        <v>-0.14864928</v>
+      </c>
+      <c r="Q54">
+        <v>0.34835072</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1323956482035414</v>
+      </c>
+      <c r="T54">
+        <v>2.092730961134383</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.123346883614171</v>
+      </c>
+      <c r="W54">
+        <v>0.1229067669172932</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.6167344180708547</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1287704299346923</v>
+      </c>
+      <c r="C55">
+        <v>0.08589825969473264</v>
+      </c>
+      <c r="D55">
+        <v>3.585398259694733</v>
+      </c>
+      <c r="E55">
+        <v>-1.7555</v>
+      </c>
+      <c r="F55">
+        <v>3.5245</v>
+      </c>
+      <c r="G55">
+        <v>0.025</v>
+      </c>
+      <c r="H55">
+        <v>1.37</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.796</v>
+      </c>
+      <c r="K55">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.299</v>
+      </c>
+      <c r="M55">
+        <v>0.4941349</v>
+      </c>
+      <c r="N55">
+        <v>-0.1951349</v>
+      </c>
+      <c r="O55">
+        <v>-0.03902698</v>
+      </c>
+      <c r="P55">
+        <v>-0.15610792</v>
+      </c>
+      <c r="Q55">
+        <v>0.34089208</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1350147045482975</v>
+      </c>
+      <c r="T55">
+        <v>2.137257151796816</v>
+      </c>
+      <c r="U55">
+        <v>0.1402</v>
+      </c>
+      <c r="V55">
+        <v>0.1210195839233375</v>
+      </c>
+      <c r="W55">
+        <v>0.1232330543339481</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.6050979196166877</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1300794299346923</v>
+      </c>
+      <c r="C56">
+        <v>-0.01946006514152598</v>
+      </c>
+      <c r="D56">
+        <v>3.546539934858475</v>
+      </c>
+      <c r="E56">
+        <v>-1.689</v>
+      </c>
+      <c r="F56">
+        <v>3.591000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.025</v>
+      </c>
+      <c r="H56">
+        <v>1.37</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.796</v>
+      </c>
+      <c r="K56">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0.299</v>
+      </c>
+      <c r="M56">
+        <v>0.5034582000000001</v>
+      </c>
+      <c r="N56">
+        <v>-0.2044582000000001</v>
+      </c>
+      <c r="O56">
+        <v>-0.04089164000000002</v>
+      </c>
+      <c r="P56">
+        <v>-0.1635665600000001</v>
+      </c>
+      <c r="Q56">
+        <v>0.33343344</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1377476329080431</v>
+      </c>
+      <c r="T56">
+        <v>2.183719263792399</v>
+      </c>
+      <c r="U56">
+        <v>0.1402</v>
+      </c>
+      <c r="V56">
+        <v>0.1187784805173498</v>
+      </c>
+      <c r="W56">
+        <v>0.1235472570314676</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.5938924025867489</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1313884299346924</v>
+      </c>
+      <c r="C57">
+        <v>-0.1239851325227108</v>
+      </c>
+      <c r="D57">
+        <v>3.50851486747729</v>
+      </c>
+      <c r="E57">
+        <v>-1.6225</v>
+      </c>
+      <c r="F57">
+        <v>3.657500000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.025</v>
+      </c>
+      <c r="H57">
+        <v>1.37</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.796</v>
+      </c>
+      <c r="K57">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.299</v>
+      </c>
+      <c r="M57">
+        <v>0.5127815000000001</v>
+      </c>
+      <c r="N57">
+        <v>-0.2137815000000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.04275630000000002</v>
+      </c>
+      <c r="P57">
+        <v>-0.1710252000000001</v>
+      </c>
+      <c r="Q57">
+        <v>0.3259748</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1406020247504441</v>
+      </c>
+      <c r="T57">
+        <v>2.232246358543341</v>
+      </c>
+      <c r="U57">
+        <v>0.1402</v>
+      </c>
+      <c r="V57">
+        <v>0.1166188717806707</v>
+      </c>
+      <c r="W57">
+        <v>0.12385003417635</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.5830943589033535</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1326974299346923</v>
+      </c>
+      <c r="C58">
+        <v>-0.2277034600353538</v>
+      </c>
+      <c r="D58">
+        <v>3.471296539964647</v>
+      </c>
+      <c r="E58">
+        <v>-1.556</v>
+      </c>
+      <c r="F58">
+        <v>3.724000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.025</v>
+      </c>
+      <c r="H58">
+        <v>1.37</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.796</v>
+      </c>
+      <c r="K58">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.299</v>
+      </c>
+      <c r="M58">
+        <v>0.5221048</v>
+      </c>
+      <c r="N58">
+        <v>-0.2231048</v>
+      </c>
+      <c r="O58">
+        <v>-0.04462096000000002</v>
+      </c>
+      <c r="P58">
+        <v>-0.17848384</v>
+      </c>
+      <c r="Q58">
+        <v>0.31851616</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1435861616765906</v>
+      </c>
+      <c r="T58">
+        <v>2.282979230328417</v>
+      </c>
+      <c r="U58">
+        <v>0.1402</v>
+      </c>
+      <c r="V58">
+        <v>0.1145363919274445</v>
+      </c>
+      <c r="W58">
+        <v>0.1241419978517723</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.5726819596372221</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1340064299346923</v>
+      </c>
+      <c r="C59">
+        <v>-0.3306404518824726</v>
+      </c>
+      <c r="D59">
+        <v>3.434859548117528</v>
+      </c>
+      <c r="E59">
+        <v>-1.4895</v>
+      </c>
+      <c r="F59">
+        <v>3.790500000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.025</v>
+      </c>
+      <c r="H59">
+        <v>1.37</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.796</v>
+      </c>
+      <c r="K59">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L59">
+        <v>0.299</v>
+      </c>
+      <c r="M59">
+        <v>0.5314281000000001</v>
+      </c>
+      <c r="N59">
+        <v>-0.2324281000000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.04648562000000002</v>
+      </c>
+      <c r="P59">
+        <v>-0.1859424800000001</v>
+      </c>
+      <c r="Q59">
+        <v>0.31105752</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1467090956690694</v>
+      </c>
+      <c r="T59">
+        <v>2.336071770568613</v>
+      </c>
+      <c r="U59">
+        <v>0.1402</v>
+      </c>
+      <c r="V59">
+        <v>0.1125269815427524</v>
+      </c>
+      <c r="W59">
+        <v>0.1244237171877061</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.5626349077137621</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1353154299346923</v>
+      </c>
+      <c r="C60">
+        <v>-0.4328204567105782</v>
+      </c>
+      <c r="D60">
+        <v>3.399179543289422</v>
+      </c>
+      <c r="E60">
+        <v>-1.423</v>
+      </c>
+      <c r="F60">
+        <v>3.857</v>
+      </c>
+      <c r="G60">
+        <v>0.025</v>
+      </c>
+      <c r="H60">
+        <v>1.37</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.796</v>
+      </c>
+      <c r="K60">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.299</v>
+      </c>
+      <c r="M60">
+        <v>0.5407513999999999</v>
+      </c>
+      <c r="N60">
+        <v>-0.2417513999999999</v>
+      </c>
+      <c r="O60">
+        <v>-0.04835027999999998</v>
+      </c>
+      <c r="P60">
+        <v>-0.1934011199999999</v>
+      </c>
+      <c r="Q60">
+        <v>0.3035988800000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1499807408040472</v>
+      </c>
+      <c r="T60">
+        <v>2.391692527010723</v>
+      </c>
+      <c r="U60">
+        <v>0.1402</v>
+      </c>
+      <c r="V60">
+        <v>0.1105868611713257</v>
+      </c>
+      <c r="W60">
+        <v>0.1246957220637801</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.5529343058566285</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1366244299346923</v>
+      </c>
+      <c r="C61">
+        <v>-0.5342668218696307</v>
+      </c>
+      <c r="D61">
+        <v>3.36423317813037</v>
+      </c>
+      <c r="E61">
+        <v>-1.3565</v>
+      </c>
+      <c r="F61">
+        <v>3.9235</v>
+      </c>
+      <c r="G61">
+        <v>0.025</v>
+      </c>
+      <c r="H61">
+        <v>1.37</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.796</v>
+      </c>
+      <c r="K61">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L61">
+        <v>0.299</v>
+      </c>
+      <c r="M61">
+        <v>0.5500747</v>
+      </c>
+      <c r="N61">
+        <v>-0.2510747</v>
+      </c>
+      <c r="O61">
+        <v>-0.05021494000000001</v>
+      </c>
+      <c r="P61">
+        <v>-0.20085976</v>
+      </c>
+      <c r="Q61">
+        <v>0.2961402400000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1534119783846337</v>
+      </c>
+      <c r="T61">
+        <v>2.450026491084154</v>
+      </c>
+      <c r="U61">
+        <v>0.1402</v>
+      </c>
+      <c r="V61">
+        <v>0.1087125075921507</v>
+      </c>
+      <c r="W61">
+        <v>0.1249585064355805</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.5435625379607533</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1379334299346923</v>
+      </c>
+      <c r="C62">
+        <v>-0.6350019443600168</v>
+      </c>
+      <c r="D62">
+        <v>3.329998055639984</v>
+      </c>
+      <c r="E62">
+        <v>-1.29</v>
+      </c>
+      <c r="F62">
+        <v>3.99</v>
+      </c>
+      <c r="G62">
+        <v>0.025</v>
+      </c>
+      <c r="H62">
+        <v>1.37</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.796</v>
+      </c>
+      <c r="K62">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.299</v>
+      </c>
+      <c r="M62">
+        <v>0.559398</v>
+      </c>
+      <c r="N62">
+        <v>-0.260398</v>
+      </c>
+      <c r="O62">
+        <v>-0.0520796</v>
+      </c>
+      <c r="P62">
+        <v>-0.2083184</v>
+      </c>
+      <c r="Q62">
+        <v>0.2886816000000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1570147778442496</v>
+      </c>
+      <c r="T62">
+        <v>2.511277153361259</v>
+      </c>
+      <c r="U62">
+        <v>0.1402</v>
+      </c>
+      <c r="V62">
+        <v>0.1069006324656148</v>
+      </c>
+      <c r="W62">
+        <v>0.1252125313283208</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.5345031623280742</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1392424299346923</v>
+      </c>
+      <c r="C63">
+        <v>-0.7350473187002033</v>
+      </c>
+      <c r="D63">
+        <v>3.296452681299797</v>
+      </c>
+      <c r="E63">
+        <v>-1.2235</v>
+      </c>
+      <c r="F63">
+        <v>4.0565</v>
+      </c>
+      <c r="G63">
+        <v>0.025</v>
+      </c>
+      <c r="H63">
+        <v>1.37</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.796</v>
+      </c>
+      <c r="K63">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L63">
+        <v>0.299</v>
+      </c>
+      <c r="M63">
+        <v>0.5687213</v>
+      </c>
+      <c r="N63">
+        <v>-0.2697213</v>
+      </c>
+      <c r="O63">
+        <v>-0.05394426</v>
+      </c>
+      <c r="P63">
+        <v>-0.21577704</v>
+      </c>
+      <c r="Q63">
+        <v>0.28122296</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1608023362505124</v>
+      </c>
+      <c r="T63">
+        <v>2.575668875242317</v>
+      </c>
+      <c r="U63">
+        <v>0.1402</v>
+      </c>
+      <c r="V63">
+        <v>0.1051481630809326</v>
+      </c>
+      <c r="W63">
+        <v>0.1254582275360532</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.525740815404663</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1405514299346923</v>
+      </c>
+      <c r="C64">
+        <v>-0.8344235819300097</v>
+      </c>
+      <c r="D64">
+        <v>3.263576418069991</v>
+      </c>
+      <c r="E64">
+        <v>-1.157</v>
+      </c>
+      <c r="F64">
+        <v>4.123</v>
+      </c>
+      <c r="G64">
+        <v>0.025</v>
+      </c>
+      <c r="H64">
+        <v>1.37</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.796</v>
+      </c>
+      <c r="K64">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.299</v>
+      </c>
+      <c r="M64">
+        <v>0.5780446</v>
+      </c>
+      <c r="N64">
+        <v>-0.2790446</v>
+      </c>
+      <c r="O64">
+        <v>-0.05580892000000001</v>
+      </c>
+      <c r="P64">
+        <v>-0.22323568</v>
+      </c>
+      <c r="Q64">
+        <v>0.2737643200000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1647892398360522</v>
+      </c>
+      <c r="T64">
+        <v>2.643449635117114</v>
+      </c>
+      <c r="U64">
+        <v>0.1402</v>
+      </c>
+      <c r="V64">
+        <v>0.103452224966724</v>
+      </c>
+      <c r="W64">
+        <v>0.1256959980596653</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.5172611248336201</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1418604299346923</v>
+      </c>
+      <c r="C65">
+        <v>-0.9331505559475075</v>
+      </c>
+      <c r="D65">
+        <v>3.231349444052493</v>
+      </c>
+      <c r="E65">
+        <v>-1.0905</v>
+      </c>
+      <c r="F65">
+        <v>4.189500000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.025</v>
+      </c>
+      <c r="H65">
+        <v>1.37</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.796</v>
+      </c>
+      <c r="K65">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.299</v>
+      </c>
+      <c r="M65">
+        <v>0.5873679000000001</v>
+      </c>
+      <c r="N65">
+        <v>-0.2883679000000001</v>
+      </c>
+      <c r="O65">
+        <v>-0.05767358000000002</v>
+      </c>
+      <c r="P65">
+        <v>-0.2306943200000001</v>
+      </c>
+      <c r="Q65">
+        <v>0.26630568</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1689916517235131</v>
+      </c>
+      <c r="T65">
+        <v>2.714894219850009</v>
+      </c>
+      <c r="U65">
+        <v>0.1402</v>
+      </c>
+      <c r="V65">
+        <v>0.1018101261577284</v>
+      </c>
+      <c r="W65">
+        <v>0.1259262203126865</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.509050630788642</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1431694299346923</v>
+      </c>
+      <c r="C66">
+        <v>-1.031247287362052</v>
+      </c>
+      <c r="D66">
+        <v>3.199752712637949</v>
+      </c>
+      <c r="E66">
+        <v>-1.024</v>
+      </c>
+      <c r="F66">
+        <v>4.256</v>
+      </c>
+      <c r="G66">
+        <v>0.025</v>
+      </c>
+      <c r="H66">
+        <v>1.37</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.796</v>
+      </c>
+      <c r="K66">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.299</v>
+      </c>
+      <c r="M66">
+        <v>0.5966912</v>
+      </c>
+      <c r="N66">
+        <v>-0.2976912</v>
+      </c>
+      <c r="O66">
+        <v>-0.05953824</v>
+      </c>
+      <c r="P66">
+        <v>-0.23815296</v>
+      </c>
+      <c r="Q66">
+        <v>0.25884704</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1734275309380551</v>
+      </c>
+      <c r="T66">
+        <v>2.790307948179176</v>
+      </c>
+      <c r="U66">
+        <v>0.1402</v>
+      </c>
+      <c r="V66">
+        <v>0.1002193429365139</v>
+      </c>
+      <c r="W66">
+        <v>0.1261492481203007</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.5010967146825696</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1737123554033959</v>
+      </c>
+      <c r="C67">
+        <v>-1.692166170180177</v>
+      </c>
+      <c r="D67">
+        <v>2.605333829819823</v>
+      </c>
+      <c r="E67">
+        <v>-0.9574999999999996</v>
+      </c>
+      <c r="F67">
+        <v>4.322500000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.025</v>
+      </c>
+      <c r="H67">
+        <v>1.37</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.796</v>
+      </c>
+      <c r="K67">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.299</v>
+      </c>
+      <c r="M67">
+        <v>0.7940432500000001</v>
+      </c>
+      <c r="N67">
+        <v>-0.4950432500000001</v>
+      </c>
+      <c r="O67">
+        <v>-0.09900865000000003</v>
+      </c>
+      <c r="P67">
+        <v>-0.3960346000000001</v>
+      </c>
+      <c r="Q67">
+        <v>0.1009654</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1808566760182955</v>
+      </c>
+      <c r="T67">
+        <v>2.916609748048418</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.07531075920612636</v>
+      </c>
+      <c r="W67">
+        <v>0.1698654135338346</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3765537960306318</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1754563554033959</v>
+      </c>
+      <c r="C68">
+        <v>-1.786012113031262</v>
+      </c>
+      <c r="D68">
+        <v>2.577987886968739</v>
+      </c>
+      <c r="E68">
+        <v>-0.891</v>
+      </c>
+      <c r="F68">
+        <v>4.389</v>
+      </c>
+      <c r="G68">
+        <v>0.025</v>
+      </c>
+      <c r="H68">
+        <v>1.37</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.796</v>
+      </c>
+      <c r="K68">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L68">
+        <v>0.299</v>
+      </c>
+      <c r="M68">
+        <v>0.8062593</v>
+      </c>
+      <c r="N68">
+        <v>-0.5072593000000001</v>
+      </c>
+      <c r="O68">
+        <v>-0.10145186</v>
+      </c>
+      <c r="P68">
+        <v>-0.4058074400000001</v>
+      </c>
+      <c r="Q68">
+        <v>0.09119255999999998</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1859024606070689</v>
+      </c>
+      <c r="T68">
+        <v>3.002392387696901</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.07416968709694263</v>
+      </c>
+      <c r="W68">
+        <v>0.1700750284802917</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3708484354847131</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1772003554033959</v>
+      </c>
+      <c r="C69">
+        <v>-1.879289965073751</v>
+      </c>
+      <c r="D69">
+        <v>2.55121003492625</v>
+      </c>
+      <c r="E69">
+        <v>-0.8244999999999996</v>
+      </c>
+      <c r="F69">
+        <v>4.455500000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.025</v>
+      </c>
+      <c r="H69">
+        <v>1.37</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.796</v>
+      </c>
+      <c r="K69">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0.299</v>
+      </c>
+      <c r="M69">
+        <v>0.8184753500000002</v>
+      </c>
+      <c r="N69">
+        <v>-0.5194753500000002</v>
+      </c>
+      <c r="O69">
+        <v>-0.10389507</v>
+      </c>
+      <c r="P69">
+        <v>-0.4155802800000002</v>
+      </c>
+      <c r="Q69">
+        <v>0.08141971999999986</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1912540503224347</v>
+      </c>
+      <c r="T69">
+        <v>3.093373975202868</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.07306267684176437</v>
+      </c>
+      <c r="W69">
+        <v>0.1702783862641679</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.3653133842088218</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1789443554033959</v>
+      </c>
+      <c r="C70">
+        <v>-1.972017246791031</v>
+      </c>
+      <c r="D70">
+        <v>2.524982753208969</v>
+      </c>
+      <c r="E70">
+        <v>-0.758</v>
+      </c>
+      <c r="F70">
+        <v>4.522</v>
+      </c>
+      <c r="G70">
+        <v>0.025</v>
+      </c>
+      <c r="H70">
+        <v>1.37</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.796</v>
+      </c>
+      <c r="K70">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0.299</v>
+      </c>
+      <c r="M70">
+        <v>0.8306914000000001</v>
+      </c>
+      <c r="N70">
+        <v>-0.5316914000000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.10633828</v>
+      </c>
+      <c r="P70">
+        <v>-0.4253531200000001</v>
+      </c>
+      <c r="Q70">
+        <v>0.07164687999999991</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1969401143950108</v>
+      </c>
+      <c r="T70">
+        <v>3.190041911927958</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.07198822571173843</v>
+      </c>
+      <c r="W70">
+        <v>0.1704757629367536</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.3599411285586921</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1806883554033959</v>
+      </c>
+      <c r="C71">
+        <v>-2.064210765532324</v>
+      </c>
+      <c r="D71">
+        <v>2.499289234467677</v>
+      </c>
+      <c r="E71">
+        <v>-0.6914999999999996</v>
+      </c>
+      <c r="F71">
+        <v>4.588500000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.025</v>
+      </c>
+      <c r="H71">
+        <v>1.37</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.796</v>
+      </c>
+      <c r="K71">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L71">
+        <v>0.299</v>
+      </c>
+      <c r="M71">
+        <v>0.8429074500000001</v>
+      </c>
+      <c r="N71">
+        <v>-0.5439074500000001</v>
+      </c>
+      <c r="O71">
+        <v>-0.10878149</v>
+      </c>
+      <c r="P71">
+        <v>-0.43512596</v>
+      </c>
+      <c r="Q71">
+        <v>0.06187404000000002</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2029930213109788</v>
+      </c>
+      <c r="T71">
+        <v>3.292946489732085</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.07094491809272772</v>
+      </c>
+      <c r="W71">
+        <v>0.1706674185463659</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.3547245904636387</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1824323554033959</v>
+      </c>
+      <c r="C72">
+        <v>-2.15588665143046</v>
+      </c>
+      <c r="D72">
+        <v>2.47411334856954</v>
+      </c>
+      <c r="E72">
+        <v>-0.625</v>
+      </c>
+      <c r="F72">
+        <v>4.655</v>
+      </c>
+      <c r="G72">
+        <v>0.025</v>
+      </c>
+      <c r="H72">
+        <v>1.37</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.796</v>
+      </c>
+      <c r="K72">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.299</v>
+      </c>
+      <c r="M72">
+        <v>0.8551235</v>
+      </c>
+      <c r="N72">
+        <v>-0.5561235</v>
+      </c>
+      <c r="O72">
+        <v>-0.1112247</v>
+      </c>
+      <c r="P72">
+        <v>-0.4448988</v>
+      </c>
+      <c r="Q72">
+        <v>0.05210120000000007</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2094494553546781</v>
+      </c>
+      <c r="T72">
+        <v>3.402711372723155</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.06993141926283163</v>
+      </c>
+      <c r="W72">
+        <v>0.1708535982814178</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.3496570963141582</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1841763554033959</v>
+      </c>
+      <c r="C73">
+        <v>-2.247060391170472</v>
+      </c>
+      <c r="D73">
+        <v>2.449439608829528</v>
+      </c>
+      <c r="E73">
+        <v>-0.5585000000000004</v>
+      </c>
+      <c r="F73">
+        <v>4.7215</v>
+      </c>
+      <c r="G73">
+        <v>0.025</v>
+      </c>
+      <c r="H73">
+        <v>1.37</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.796</v>
+      </c>
+      <c r="K73">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.299</v>
+      </c>
+      <c r="M73">
+        <v>0.86733955</v>
+      </c>
+      <c r="N73">
+        <v>-0.5683395499999999</v>
+      </c>
+      <c r="O73">
+        <v>-0.11366791</v>
+      </c>
+      <c r="P73">
+        <v>-0.4546716399999999</v>
+      </c>
+      <c r="Q73">
+        <v>0.04232836000000012</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2163511607117359</v>
+      </c>
+      <c r="T73">
+        <v>3.520046247644642</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.0689464696957495</v>
+      </c>
+      <c r="W73">
+        <v>0.1710345335168908</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.3447323484787476</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1859203554033959</v>
+      </c>
+      <c r="C74">
+        <v>-2.337746859757528</v>
+      </c>
+      <c r="D74">
+        <v>2.425253140242472</v>
+      </c>
+      <c r="E74">
+        <v>-0.492</v>
+      </c>
+      <c r="F74">
+        <v>4.788</v>
+      </c>
+      <c r="G74">
+        <v>0.025</v>
+      </c>
+      <c r="H74">
+        <v>1.37</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.796</v>
+      </c>
+      <c r="K74">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.299</v>
+      </c>
+      <c r="M74">
+        <v>0.8795556000000001</v>
+      </c>
+      <c r="N74">
+        <v>-0.5805556000000001</v>
+      </c>
+      <c r="O74">
+        <v>-0.11611112</v>
+      </c>
+      <c r="P74">
+        <v>-0.46444448</v>
+      </c>
+      <c r="Q74">
+        <v>0.03255552</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2237458450228694</v>
+      </c>
+      <c r="T74">
+        <v>3.645762185060522</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.06798887983886408</v>
+      </c>
+      <c r="W74">
+        <v>0.1712104427736007</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.3399443991943204</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1876643554033959</v>
+      </c>
+      <c r="C75">
+        <v>-2.427960350421158</v>
+      </c>
+      <c r="D75">
+        <v>2.401539649578842</v>
+      </c>
+      <c r="E75">
+        <v>-0.4255000000000004</v>
+      </c>
+      <c r="F75">
+        <v>4.8545</v>
+      </c>
+      <c r="G75">
+        <v>0.025</v>
+      </c>
+      <c r="H75">
+        <v>1.37</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.796</v>
+      </c>
+      <c r="K75">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L75">
+        <v>0.299</v>
+      </c>
+      <c r="M75">
+        <v>0.89177165</v>
+      </c>
+      <c r="N75">
+        <v>-0.59277165</v>
+      </c>
+      <c r="O75">
+        <v>-0.11855433</v>
+      </c>
+      <c r="P75">
+        <v>-0.47421732</v>
+      </c>
+      <c r="Q75">
+        <v>0.02278268000000006</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2316882837274201</v>
+      </c>
+      <c r="T75">
+        <v>3.780790414136837</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.06705752532052348</v>
+      </c>
+      <c r="W75">
+        <v>0.1713815325986199</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.3352876266026175</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1894083554033959</v>
+      </c>
+      <c r="C76">
+        <v>-2.517714602782104</v>
+      </c>
+      <c r="D76">
+        <v>2.378285397217896</v>
+      </c>
+      <c r="E76">
+        <v>-0.359</v>
+      </c>
+      <c r="F76">
+        <v>4.921</v>
+      </c>
+      <c r="G76">
+        <v>0.025</v>
+      </c>
+      <c r="H76">
+        <v>1.37</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.796</v>
+      </c>
+      <c r="K76">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L76">
+        <v>0.299</v>
+      </c>
+      <c r="M76">
+        <v>0.9039877000000001</v>
+      </c>
+      <c r="N76">
+        <v>-0.6049877000000001</v>
+      </c>
+      <c r="O76">
+        <v>-0.12099754</v>
+      </c>
+      <c r="P76">
+        <v>-0.4839901600000001</v>
+      </c>
+      <c r="Q76">
+        <v>0.01300983999999994</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2402416792553978</v>
+      </c>
+      <c r="T76">
+        <v>3.926205430065178</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0661513425459218</v>
+      </c>
+      <c r="W76">
+        <v>0.1715479983743142</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.3307567127296089</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1911523554033959</v>
+      </c>
+      <c r="C77">
+        <v>-2.607022829398401</v>
+      </c>
+      <c r="D77">
+        <v>2.3554771706016</v>
+      </c>
+      <c r="E77">
+        <v>-0.2924999999999995</v>
+      </c>
+      <c r="F77">
+        <v>4.987500000000001</v>
+      </c>
+      <c r="G77">
+        <v>0.025</v>
+      </c>
+      <c r="H77">
+        <v>1.37</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.796</v>
+      </c>
+      <c r="K77">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L77">
+        <v>0.299</v>
+      </c>
+      <c r="M77">
+        <v>0.9162037500000001</v>
+      </c>
+      <c r="N77">
+        <v>-0.6172037500000001</v>
+      </c>
+      <c r="O77">
+        <v>-0.12344075</v>
+      </c>
+      <c r="P77">
+        <v>-0.4937630000000001</v>
+      </c>
+      <c r="Q77">
+        <v>0.00323699999999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2494793464256137</v>
+      </c>
+      <c r="T77">
+        <v>4.083253647267785</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.06526932464530952</v>
+      </c>
+      <c r="W77">
+        <v>0.1717100250626566</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.3263466232265476</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1928963554033959</v>
+      </c>
+      <c r="C78">
+        <v>-2.695897740798484</v>
+      </c>
+      <c r="D78">
+        <v>2.333102259201516</v>
+      </c>
+      <c r="E78">
+        <v>-0.226</v>
+      </c>
+      <c r="F78">
+        <v>5.054</v>
+      </c>
+      <c r="G78">
+        <v>0.025</v>
+      </c>
+      <c r="H78">
+        <v>1.37</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.796</v>
+      </c>
+      <c r="K78">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L78">
+        <v>0.299</v>
+      </c>
+      <c r="M78">
+        <v>0.9284198</v>
+      </c>
+      <c r="N78">
+        <v>-0.6294198</v>
+      </c>
+      <c r="O78">
+        <v>-0.12588396</v>
+      </c>
+      <c r="P78">
+        <v>-0.50353584</v>
+      </c>
+      <c r="Q78">
+        <v>-0.006535839999999904</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2594868191933476</v>
+      </c>
+      <c r="T78">
+        <v>4.253389215903943</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.06441051774208176</v>
+      </c>
+      <c r="W78">
+        <v>0.1718677878907796</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.3220525887104089</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1946403554033959</v>
+      </c>
+      <c r="C79">
+        <v>-2.784351569100969</v>
+      </c>
+      <c r="D79">
+        <v>2.311148430899032</v>
+      </c>
+      <c r="E79">
+        <v>-0.1594999999999995</v>
+      </c>
+      <c r="F79">
+        <v>5.120500000000001</v>
+      </c>
+      <c r="G79">
+        <v>0.025</v>
+      </c>
+      <c r="H79">
+        <v>1.37</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.796</v>
+      </c>
+      <c r="K79">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L79">
+        <v>0.299</v>
+      </c>
+      <c r="M79">
+        <v>0.9406358500000002</v>
+      </c>
+      <c r="N79">
+        <v>-0.6416358500000001</v>
+      </c>
+      <c r="O79">
+        <v>-0.12832717</v>
+      </c>
+      <c r="P79">
+        <v>-0.5133086800000001</v>
+      </c>
+      <c r="Q79">
+        <v>-0.01630868000000002</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2703645069843627</v>
+      </c>
+      <c r="T79">
+        <v>4.43831918181281</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.06357401751166511</v>
+      </c>
+      <c r="W79">
+        <v>0.1720214529831071</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.3178700875583256</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1963843554033959</v>
+      </c>
+      <c r="C80">
+        <v>-2.872396090313321</v>
+      </c>
+      <c r="D80">
+        <v>2.289603909686679</v>
+      </c>
+      <c r="E80">
+        <v>-0.09299999999999997</v>
+      </c>
+      <c r="F80">
+        <v>5.187</v>
+      </c>
+      <c r="G80">
+        <v>0.025</v>
+      </c>
+      <c r="H80">
+        <v>1.37</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.796</v>
+      </c>
+      <c r="K80">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L80">
+        <v>0.299</v>
+      </c>
+      <c r="M80">
+        <v>0.9528519000000001</v>
+      </c>
+      <c r="N80">
+        <v>-0.6538519</v>
+      </c>
+      <c r="O80">
+        <v>-0.13077038</v>
+      </c>
+      <c r="P80">
+        <v>-0.5230815200000001</v>
+      </c>
+      <c r="Q80">
+        <v>-0.02608152000000002</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2822310754836519</v>
+      </c>
+      <c r="T80">
+        <v>4.640060962804301</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.0627589660051053</v>
+      </c>
+      <c r="W80">
+        <v>0.1721711779448621</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.3137948300255265</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1981283554033959</v>
+      </c>
+      <c r="C81">
+        <v>-2.960042645394857</v>
+      </c>
+      <c r="D81">
+        <v>2.268457354605144</v>
+      </c>
+      <c r="E81">
+        <v>-0.02649999999999952</v>
+      </c>
+      <c r="F81">
+        <v>5.253500000000001</v>
+      </c>
+      <c r="G81">
+        <v>0.025</v>
+      </c>
+      <c r="H81">
+        <v>1.37</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.796</v>
+      </c>
+      <c r="K81">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L81">
+        <v>0.299</v>
+      </c>
+      <c r="M81">
+        <v>0.9650679500000001</v>
+      </c>
+      <c r="N81">
+        <v>-0.6660679500000002</v>
+      </c>
+      <c r="O81">
+        <v>-0.13321359</v>
+      </c>
+      <c r="P81">
+        <v>-0.5328543600000002</v>
+      </c>
+      <c r="Q81">
+        <v>-0.03585436000000014</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2952277933638259</v>
+      </c>
+      <c r="T81">
+        <v>4.861016246747364</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.06196454871390144</v>
+      </c>
+      <c r="W81">
+        <v>0.1723171124012563</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.3098227435695071</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1998723554033959</v>
+      </c>
+      <c r="C82">
+        <v>-3.047302160163182</v>
+      </c>
+      <c r="D82">
+        <v>2.247697839836819</v>
+      </c>
+      <c r="E82">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="F82">
+        <v>5.32</v>
+      </c>
+      <c r="G82">
+        <v>0.025</v>
+      </c>
+      <c r="H82">
+        <v>1.37</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.796</v>
+      </c>
+      <c r="K82">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.299</v>
+      </c>
+      <c r="M82">
+        <v>0.977284</v>
+      </c>
+      <c r="N82">
+        <v>-0.6782840000000001</v>
+      </c>
+      <c r="O82">
+        <v>-0.1356568</v>
+      </c>
+      <c r="P82">
+        <v>-0.5426272000000001</v>
+      </c>
+      <c r="Q82">
+        <v>-0.04562720000000003</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3095241830320172</v>
+      </c>
+      <c r="T82">
+        <v>5.104067059084732</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.06118999185497767</v>
+      </c>
+      <c r="W82">
+        <v>0.1724593984962406</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.3059499592748883</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2016163554033959</v>
+      </c>
+      <c r="C83">
+        <v>-3.134185164117541</v>
+      </c>
+      <c r="D83">
+        <v>2.227314835882459</v>
+      </c>
+      <c r="E83">
+        <v>0.1065000000000005</v>
+      </c>
+      <c r="F83">
+        <v>5.386500000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.025</v>
+      </c>
+      <c r="H83">
+        <v>1.37</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.796</v>
+      </c>
+      <c r="K83">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L83">
+        <v>0.299</v>
+      </c>
+      <c r="M83">
+        <v>0.9895000500000002</v>
+      </c>
+      <c r="N83">
+        <v>-0.6905000500000003</v>
+      </c>
+      <c r="O83">
+        <v>-0.1381000100000001</v>
+      </c>
+      <c r="P83">
+        <v>-0.5524000400000002</v>
+      </c>
+      <c r="Q83">
+        <v>-0.05540004000000015</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.325325455823176</v>
+      </c>
+      <c r="T83">
+        <v>5.372702167457613</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.06043455985676806</v>
+      </c>
+      <c r="W83">
+        <v>0.1725981713543117</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3021727992838402</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2033603554033959</v>
+      </c>
+      <c r="C84">
+        <v>-3.22070180824717</v>
+      </c>
+      <c r="D84">
+        <v>2.207298191752831</v>
+      </c>
+      <c r="E84">
+        <v>0.173</v>
+      </c>
+      <c r="F84">
+        <v>5.453</v>
+      </c>
+      <c r="G84">
+        <v>0.025</v>
+      </c>
+      <c r="H84">
+        <v>1.37</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.796</v>
+      </c>
+      <c r="K84">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L84">
+        <v>0.299</v>
+      </c>
+      <c r="M84">
+        <v>1.0017161</v>
+      </c>
+      <c r="N84">
+        <v>-0.7027161000000002</v>
+      </c>
+      <c r="O84">
+        <v>-0.1405432200000001</v>
+      </c>
+      <c r="P84">
+        <v>-0.5621728800000001</v>
+      </c>
+      <c r="Q84">
+        <v>-0.06517288000000004</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3428824255911302</v>
+      </c>
+      <c r="T84">
+        <v>5.671185621205258</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.0596975530292465</v>
+      </c>
+      <c r="W84">
+        <v>0.1727335595085274</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2984877651462324</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2051043554033959</v>
+      </c>
+      <c r="C85">
+        <v>-3.306861881887954</v>
+      </c>
+      <c r="D85">
+        <v>2.187638118112047</v>
+      </c>
+      <c r="E85">
+        <v>0.2395000000000005</v>
+      </c>
+      <c r="F85">
+        <v>5.519500000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.025</v>
+      </c>
+      <c r="H85">
+        <v>1.37</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.796</v>
+      </c>
+      <c r="K85">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L85">
+        <v>0.299</v>
+      </c>
+      <c r="M85">
+        <v>1.01393215</v>
+      </c>
+      <c r="N85">
+        <v>-0.7149321500000003</v>
+      </c>
+      <c r="O85">
+        <v>-0.1429864300000001</v>
+      </c>
+      <c r="P85">
+        <v>-0.5719457200000002</v>
+      </c>
+      <c r="Q85">
+        <v>-0.07494572000000016</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3625049212141379</v>
+      </c>
+      <c r="T85">
+        <v>6.004784775393803</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.0589783054023881</v>
+      </c>
+      <c r="W85">
+        <v>0.1728656852975813</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2948915270119404</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2068483554033959</v>
+      </c>
+      <c r="C86">
+        <v>-3.392674828686203</v>
+      </c>
+      <c r="D86">
+        <v>2.168325171313798</v>
+      </c>
+      <c r="E86">
+        <v>0.306</v>
+      </c>
+      <c r="F86">
+        <v>5.586</v>
+      </c>
+      <c r="G86">
+        <v>0.025</v>
+      </c>
+      <c r="H86">
+        <v>1.37</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.796</v>
+      </c>
+      <c r="K86">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L86">
+        <v>0.299</v>
+      </c>
+      <c r="M86">
+        <v>1.0261482</v>
+      </c>
+      <c r="N86">
+        <v>-0.7271482000000002</v>
+      </c>
+      <c r="O86">
+        <v>-0.1454296400000001</v>
+      </c>
+      <c r="P86">
+        <v>-0.5817185600000002</v>
+      </c>
+      <c r="Q86">
+        <v>-0.08471856000000016</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3845802287900214</v>
+      </c>
+      <c r="T86">
+        <v>6.380083823855913</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.05827618271902635</v>
+      </c>
+      <c r="W86">
+        <v>0.1729946652345149</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2913809135951316</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2085923554033959</v>
+      </c>
+      <c r="C87">
+        <v>-3.478149761724234</v>
+      </c>
+      <c r="D87">
+        <v>2.149350238275766</v>
+      </c>
+      <c r="E87">
+        <v>0.3724999999999996</v>
+      </c>
+      <c r="F87">
+        <v>5.6525</v>
+      </c>
+      <c r="G87">
+        <v>0.025</v>
+      </c>
+      <c r="H87">
+        <v>1.37</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.796</v>
+      </c>
+      <c r="K87">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.299</v>
+      </c>
+      <c r="M87">
+        <v>1.03836425</v>
+      </c>
+      <c r="N87">
+        <v>-0.7393642499999999</v>
+      </c>
+      <c r="O87">
+        <v>-0.14787285</v>
+      </c>
+      <c r="P87">
+        <v>-0.5914914</v>
+      </c>
+      <c r="Q87">
+        <v>-0.09449139999999995</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4095989107093561</v>
+      </c>
+      <c r="T87">
+        <v>6.805422745446307</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.05759058056939076</v>
+      </c>
+      <c r="W87">
+        <v>0.1731206103494029</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2879529028469537</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2103363554033959</v>
+      </c>
+      <c r="C88">
+        <v>-3.563295477858669</v>
+      </c>
+      <c r="D88">
+        <v>2.130704522141331</v>
+      </c>
+      <c r="E88">
+        <v>0.4390000000000001</v>
+      </c>
+      <c r="F88">
+        <v>5.719</v>
+      </c>
+      <c r="G88">
+        <v>0.025</v>
+      </c>
+      <c r="H88">
+        <v>1.37</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.796</v>
+      </c>
+      <c r="K88">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L88">
+        <v>0.299</v>
+      </c>
+      <c r="M88">
+        <v>1.0505803</v>
+      </c>
+      <c r="N88">
+        <v>-0.7515803000000001</v>
+      </c>
+      <c r="O88">
+        <v>-0.15031606</v>
+      </c>
+      <c r="P88">
+        <v>-0.6012642400000001</v>
+      </c>
+      <c r="Q88">
+        <v>-0.1042642400000001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4381916900457387</v>
+      </c>
+      <c r="T88">
+        <v>7.291524370121044</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.05692092265579318</v>
+      </c>
+      <c r="W88">
+        <v>0.1732436265081308</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2846046132789658</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2120803554033959</v>
+      </c>
+      <c r="C89">
+        <v>-3.648120471318821</v>
+      </c>
+      <c r="D89">
+        <v>2.112379528681179</v>
+      </c>
+      <c r="E89">
+        <v>0.5054999999999996</v>
+      </c>
+      <c r="F89">
+        <v>5.7855</v>
+      </c>
+      <c r="G89">
+        <v>0.025</v>
+      </c>
+      <c r="H89">
+        <v>1.37</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.796</v>
+      </c>
+      <c r="K89">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.299</v>
+      </c>
+      <c r="M89">
+        <v>1.06279635</v>
+      </c>
+      <c r="N89">
+        <v>-0.76379635</v>
+      </c>
+      <c r="O89">
+        <v>-0.15275927</v>
+      </c>
+      <c r="P89">
+        <v>-0.61103708</v>
+      </c>
+      <c r="Q89">
+        <v>-0.11403708</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4711833585107956</v>
+      </c>
+      <c r="T89">
+        <v>7.852410860130356</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.05626665917699097</v>
+      </c>
+      <c r="W89">
+        <v>0.1733638147091868</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2813332958849548</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2138243554033959</v>
+      </c>
+      <c r="C90">
+        <v>-3.732632946609374</v>
+      </c>
+      <c r="D90">
+        <v>2.094367053390626</v>
+      </c>
+      <c r="E90">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="F90">
+        <v>5.852</v>
+      </c>
+      <c r="G90">
+        <v>0.025</v>
+      </c>
+      <c r="H90">
+        <v>1.37</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.796</v>
+      </c>
+      <c r="K90">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L90">
+        <v>0.299</v>
+      </c>
+      <c r="M90">
+        <v>1.0750124</v>
+      </c>
+      <c r="N90">
+        <v>-0.7760124000000002</v>
+      </c>
+      <c r="O90">
+        <v>-0.15520248</v>
+      </c>
+      <c r="P90">
+        <v>-0.6208099200000001</v>
+      </c>
+      <c r="Q90">
+        <v>-0.1238099200000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5096736383866952</v>
+      </c>
+      <c r="T90">
+        <v>8.506778431807886</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.05562726532270697</v>
+      </c>
+      <c r="W90">
+        <v>0.1734812713602187</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2781363266135348</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2155683554033959</v>
+      </c>
+      <c r="C91">
+        <v>-3.816840830758497</v>
+      </c>
+      <c r="D91">
+        <v>2.076659169241504</v>
+      </c>
+      <c r="E91">
+        <v>0.6385000000000005</v>
+      </c>
+      <c r="F91">
+        <v>5.918500000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.025</v>
+      </c>
+      <c r="H91">
+        <v>1.37</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.796</v>
+      </c>
+      <c r="K91">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L91">
+        <v>0.299</v>
+      </c>
+      <c r="M91">
+        <v>1.08722845</v>
+      </c>
+      <c r="N91">
+        <v>-0.7882284500000003</v>
+      </c>
+      <c r="O91">
+        <v>-0.1576456900000001</v>
+      </c>
+      <c r="P91">
+        <v>-0.6305827600000002</v>
+      </c>
+      <c r="Q91">
+        <v>-0.1335827600000002</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5551621509673039</v>
+      </c>
+      <c r="T91">
+        <v>9.280121925608602</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.05500223986964284</v>
+      </c>
+      <c r="W91">
+        <v>0.1735960885359466</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2750111993482142</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2173123554033959</v>
+      </c>
+      <c r="C92">
+        <v>-3.900751784949816</v>
+      </c>
+      <c r="D92">
+        <v>2.059248215050184</v>
+      </c>
+      <c r="E92">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="F92">
+        <v>5.985</v>
+      </c>
+      <c r="G92">
+        <v>0.025</v>
+      </c>
+      <c r="H92">
+        <v>1.37</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.796</v>
+      </c>
+      <c r="K92">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L92">
+        <v>0.299</v>
+      </c>
+      <c r="M92">
+        <v>1.0994445</v>
+      </c>
+      <c r="N92">
+        <v>-0.8004445000000002</v>
+      </c>
+      <c r="O92">
+        <v>-0.1600889000000001</v>
+      </c>
+      <c r="P92">
+        <v>-0.6403556000000001</v>
+      </c>
+      <c r="Q92">
+        <v>-0.1433556000000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.6097483660640344</v>
+      </c>
+      <c r="T92">
+        <v>10.20813411816946</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.05439110387109125</v>
+      </c>
+      <c r="W92">
+        <v>0.1737083542188805</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2719555193554563</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2190563554033959</v>
+      </c>
+      <c r="C93">
+        <v>-3.984373215574128</v>
+      </c>
+      <c r="D93">
+        <v>2.042126784425873</v>
+      </c>
+      <c r="E93">
+        <v>0.7715000000000005</v>
+      </c>
+      <c r="F93">
+        <v>6.051500000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.025</v>
+      </c>
+      <c r="H93">
+        <v>1.37</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.796</v>
+      </c>
+      <c r="K93">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L93">
+        <v>0.299</v>
+      </c>
+      <c r="M93">
+        <v>1.11166055</v>
+      </c>
+      <c r="N93">
+        <v>-0.8126605500000001</v>
+      </c>
+      <c r="O93">
+        <v>-0.16253211</v>
+      </c>
+      <c r="P93">
+        <v>-0.6501284400000001</v>
+      </c>
+      <c r="Q93">
+        <v>-0.1531284400000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6764648511822604</v>
+      </c>
+      <c r="T93">
+        <v>11.34237124241052</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.0537933994329474</v>
+      </c>
+      <c r="W93">
+        <v>0.1738181525241676</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2689669971647369</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.220800355403396</v>
+      </c>
+      <c r="C94">
+        <v>-4.067712284734299</v>
+      </c>
+      <c r="D94">
+        <v>2.025287715265701</v>
+      </c>
+      <c r="E94">
+        <v>0.8380000000000001</v>
+      </c>
+      <c r="F94">
+        <v>6.118</v>
+      </c>
+      <c r="G94">
+        <v>0.025</v>
+      </c>
+      <c r="H94">
+        <v>1.37</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.796</v>
+      </c>
+      <c r="K94">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L94">
+        <v>0.299</v>
+      </c>
+      <c r="M94">
+        <v>1.1238766</v>
+      </c>
+      <c r="N94">
+        <v>-0.8248766000000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.16497532</v>
+      </c>
+      <c r="P94">
+        <v>-0.65990128</v>
+      </c>
+      <c r="Q94">
+        <v>-0.16290128</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7598604575800434</v>
+      </c>
+      <c r="T94">
+        <v>12.76016764771184</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.0532086885695458</v>
+      </c>
+      <c r="W94">
+        <v>0.1739255639097745</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.266043442847729</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2225443554033959</v>
+      </c>
+      <c r="C95">
+        <v>-4.150775920234718</v>
+      </c>
+      <c r="D95">
+        <v>2.008724079765283</v>
+      </c>
+      <c r="E95">
+        <v>0.9045000000000005</v>
+      </c>
+      <c r="F95">
+        <v>6.184500000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.025</v>
+      </c>
+      <c r="H95">
+        <v>1.37</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.796</v>
+      </c>
+      <c r="K95">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.299</v>
+      </c>
+      <c r="M95">
+        <v>1.13609265</v>
+      </c>
+      <c r="N95">
+        <v>-0.8370926500000002</v>
+      </c>
+      <c r="O95">
+        <v>-0.1674185300000001</v>
+      </c>
+      <c r="P95">
+        <v>-0.6696741200000002</v>
+      </c>
+      <c r="Q95">
+        <v>-0.1726741200000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8670833800914781</v>
+      </c>
+      <c r="T95">
+        <v>14.5830487402421</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.05263655213331412</v>
+      </c>
+      <c r="W95">
+        <v>0.1740306653731102</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2631827606665705</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2242883554033959</v>
+      </c>
+      <c r="C96">
+        <v>-4.233570825084504</v>
+      </c>
+      <c r="D96">
+        <v>1.992429174915496</v>
+      </c>
+      <c r="E96">
+        <v>0.9710000000000001</v>
+      </c>
+      <c r="F96">
+        <v>6.251</v>
+      </c>
+      <c r="G96">
+        <v>0.025</v>
+      </c>
+      <c r="H96">
+        <v>1.37</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.796</v>
+      </c>
+      <c r="K96">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L96">
+        <v>0.299</v>
+      </c>
+      <c r="M96">
+        <v>1.1483087</v>
+      </c>
+      <c r="N96">
+        <v>-0.8493087000000001</v>
+      </c>
+      <c r="O96">
+        <v>-0.16986174</v>
+      </c>
+      <c r="P96">
+        <v>-0.6794469600000002</v>
+      </c>
+      <c r="Q96">
+        <v>-0.1824469600000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.010047276773391</v>
+      </c>
+      <c r="T96">
+        <v>17.01355686361579</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.05207658881274695</v>
+      </c>
+      <c r="W96">
+        <v>0.1741335306350984</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2603829440637347</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2260323554033959</v>
+      </c>
+      <c r="C97">
+        <v>-4.316103486541929</v>
+      </c>
+      <c r="D97">
+        <v>1.976396513458072</v>
+      </c>
+      <c r="E97">
+        <v>1.037500000000001</v>
+      </c>
+      <c r="F97">
+        <v>6.317500000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.025</v>
+      </c>
+      <c r="H97">
+        <v>1.37</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.796</v>
+      </c>
+      <c r="K97">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L97">
+        <v>0.299</v>
+      </c>
+      <c r="M97">
+        <v>1.16052475</v>
+      </c>
+      <c r="N97">
+        <v>-0.8615247500000003</v>
+      </c>
+      <c r="O97">
+        <v>-0.1723049500000001</v>
+      </c>
+      <c r="P97">
+        <v>-0.6892198000000003</v>
+      </c>
+      <c r="Q97">
+        <v>-0.1922198000000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.210196732128071</v>
+      </c>
+      <c r="T97">
+        <v>20.41626823633896</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.0515284141936654</v>
+      </c>
+      <c r="W97">
+        <v>0.1742342303126237</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2576420709683269</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2277763554033959</v>
+      </c>
+      <c r="C98">
+        <v>-4.398380184725614</v>
+      </c>
+      <c r="D98">
+        <v>1.960619815274387</v>
+      </c>
+      <c r="E98">
+        <v>1.104</v>
+      </c>
+      <c r="F98">
+        <v>6.384</v>
+      </c>
+      <c r="G98">
+        <v>0.025</v>
+      </c>
+      <c r="H98">
+        <v>1.37</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.796</v>
+      </c>
+      <c r="K98">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L98">
+        <v>0.299</v>
+      </c>
+      <c r="M98">
+        <v>1.1727408</v>
+      </c>
+      <c r="N98">
+        <v>-0.8737408000000002</v>
+      </c>
+      <c r="O98">
+        <v>-0.17474816</v>
+      </c>
+      <c r="P98">
+        <v>-0.6989926400000002</v>
+      </c>
+      <c r="Q98">
+        <v>-0.2019926400000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.510420915160084</v>
+      </c>
+      <c r="T98">
+        <v>25.52033529542364</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.05099165987914805</v>
+      </c>
+      <c r="W98">
+        <v>0.1743328320802005</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2549582993957402</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2295203554033959</v>
+      </c>
+      <c r="C99">
+        <v>-4.480407000816592</v>
+      </c>
+      <c r="D99">
+        <v>1.945092999183408</v>
+      </c>
+      <c r="E99">
+        <v>1.1705</v>
+      </c>
+      <c r="F99">
+        <v>6.4505</v>
+      </c>
+      <c r="G99">
+        <v>0.025</v>
+      </c>
+      <c r="H99">
+        <v>1.37</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.796</v>
+      </c>
+      <c r="K99">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L99">
+        <v>0.299</v>
+      </c>
+      <c r="M99">
+        <v>1.18495685</v>
+      </c>
+      <c r="N99">
+        <v>-0.8859568500000001</v>
+      </c>
+      <c r="O99">
+        <v>-0.17719137</v>
+      </c>
+      <c r="P99">
+        <v>-0.7087654800000001</v>
+      </c>
+      <c r="Q99">
+        <v>-0.21176548</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.010794553546779</v>
+      </c>
+      <c r="T99">
+        <v>34.02711372723152</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.05046597266389911</v>
+      </c>
+      <c r="W99">
+        <v>0.1744294008216417</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2523298633194955</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2312643554033959</v>
+      </c>
+      <c r="C100">
+        <v>-4.562189824873684</v>
+      </c>
+      <c r="D100">
+        <v>1.929810175126316</v>
+      </c>
+      <c r="E100">
+        <v>1.237</v>
+      </c>
+      <c r="F100">
+        <v>6.517</v>
+      </c>
+      <c r="G100">
+        <v>0.025</v>
+      </c>
+      <c r="H100">
+        <v>1.37</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.796</v>
+      </c>
+      <c r="K100">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.299</v>
+      </c>
+      <c r="M100">
+        <v>1.1971729</v>
+      </c>
+      <c r="N100">
+        <v>-0.8981729000000001</v>
+      </c>
+      <c r="O100">
+        <v>-0.17963458</v>
+      </c>
+      <c r="P100">
+        <v>-0.7185383200000001</v>
+      </c>
+      <c r="Q100">
+        <v>-0.22153832</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.011541830320169</v>
+      </c>
+      <c r="T100">
+        <v>51.04067059084727</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.04995101375916545</v>
+      </c>
+      <c r="W100">
+        <v>0.1745239987724413</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2497550687958272</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2330083554033959</v>
+      </c>
+      <c r="C101">
+        <v>-4.643734363283308</v>
+      </c>
+      <c r="D101">
+        <v>1.914765636716693</v>
+      </c>
+      <c r="E101">
+        <v>1.3035</v>
+      </c>
+      <c r="F101">
+        <v>6.5835</v>
+      </c>
+      <c r="G101">
+        <v>0.025</v>
+      </c>
+      <c r="H101">
+        <v>1.37</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.796</v>
+      </c>
+      <c r="K101">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.299</v>
+      </c>
+      <c r="M101">
+        <v>1.20938895</v>
+      </c>
+      <c r="N101">
+        <v>-0.91038895</v>
+      </c>
+      <c r="O101">
+        <v>-0.18207779</v>
+      </c>
+      <c r="P101">
+        <v>-0.72831116</v>
+      </c>
+      <c r="Q101">
+        <v>-0.2313111599999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.013783660640337</v>
+      </c>
+      <c r="T101">
+        <v>102.0813411816945</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.04944645806462843</v>
+      </c>
+      <c r="W101">
+        <v>0.1746166856535278</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2472322903231421</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
